--- a/velocity.xlsx
+++ b/velocity.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TAMU\Spring_2023\final_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B2F5A212-4C60-4263-81DD-88F557DCA6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA72CE8E-7D01-4EA0-92AF-44370854B266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="velocity" sheetId="1" r:id="rId1"/>
     <sheet name="wide" sheetId="2" r:id="rId2"/>
+    <sheet name="summary table" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="19">
   <si>
     <t>cnt</t>
   </si>
@@ -61,12 +75,33 @@
   <si>
     <t>Velocity (fps)</t>
   </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>Amo</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>µ</t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +246,22 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -416,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -583,6 +634,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -628,19 +843,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,13 +868,60 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="21" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1011,11 +1276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2552,18 +2817,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="1.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" customWidth="1"/>
@@ -2579,953 +2844,953 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>2565</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>2441</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="37">
         <v>2393</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="1">
         <v>3</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>2438</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>2532</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1">
         <v>7</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>2436</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="1">
         <v>5</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>2550</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="1">
         <v>7</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>2439</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>2566</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="1">
         <v>11</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>2441</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="1">
         <v>9</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>2599</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="10"/>
       <c r="N5" s="1">
         <v>11</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>2460</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>2586</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="1">
         <v>15</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>2438</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="1">
         <v>13</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>2583</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="1">
         <v>15</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>2415</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1">
         <v>17</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>2613</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1">
         <v>19</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>2425</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="1">
         <v>17</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>2604</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="1">
         <v>19</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>2419</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1">
         <v>21</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>2621</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="1">
         <v>23</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>2429</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="1">
         <v>21</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>2566</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="1">
         <v>23</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>2446</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1">
         <v>25</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>2608</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="1">
         <v>27</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>2410</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="1">
         <v>25</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>2582</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="1">
         <v>27</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>2438</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1">
         <v>29</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>2631</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1">
         <v>31</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>2462</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="1">
         <v>29</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>2558</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="1">
         <v>31</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>2394</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1">
         <v>33</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>2564</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1">
         <v>35</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>2443</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="1">
         <v>33</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>2561</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="1">
         <v>35</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>2423</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1">
         <v>37</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>2571</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1">
         <v>39</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>2450</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="1">
         <v>37</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>2620</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="1">
         <v>39</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>2424</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1">
         <v>41</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>2586</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1">
         <v>43</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>2406</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="1">
         <v>41</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>2599</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="8"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="1">
         <v>43</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>2421</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1">
         <v>45</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>2601</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1">
         <v>47</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>2472</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>2368</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="6" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>2753</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1">
         <v>49</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>2563</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="1">
         <v>51</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>2424</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="1">
         <v>6</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <v>2382</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="7"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="1">
         <v>8</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>2688</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1">
         <v>53</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>2613</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="1">
         <v>55</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>2469</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="1">
         <v>10</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="3">
         <v>2389</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="1">
         <v>12</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <v>2773</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1">
         <v>57</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>2624</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="1">
         <v>59</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>2413</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="1">
         <v>14</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="3">
         <v>2411</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="1">
         <v>16</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="3">
         <v>2741</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1">
         <v>61</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>2549</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="1">
         <v>63</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>2440</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="1">
         <v>18</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="3">
         <v>2406</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="1">
         <v>20</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="3">
         <v>2692</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>2438</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>2779</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="1">
         <v>22</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="3">
         <v>2412</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="1">
         <v>24</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="3">
         <v>2740</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>2411</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="1">
         <v>8</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>2681</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="1">
         <v>26</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="3">
         <v>2386</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="1">
         <v>28</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="3">
         <v>2737</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1">
         <v>10</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>2384</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="1">
         <v>12</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>2667</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="1">
         <v>30</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="3">
         <v>2390</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="1">
         <v>32</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="3">
         <v>2676</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1">
         <v>14</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>2422</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="1">
         <v>16</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>2785</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="1">
         <v>34</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="3">
         <v>2429</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="7"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="1">
         <v>36</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="3">
         <v>2725</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1">
         <v>18</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>2398</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>2668</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="1">
         <v>38</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="3">
         <v>2399</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="7"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="1">
         <v>40</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="3">
         <v>2719</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>2421</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="1">
         <v>24</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>2711</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="1">
         <v>42</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="3">
         <v>2392</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="8"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="1">
         <v>44</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="3">
         <v>2672</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1">
         <v>26</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>2414</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="1">
         <v>28</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>2794</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1">
         <v>30</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>2425</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="1">
         <v>32</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>2712</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1">
         <v>34</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>2420</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="1">
         <v>36</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>2741</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1">
         <v>38</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>2414</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="1">
         <v>40</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>2804</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1">
         <v>42</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>2389</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="1">
         <v>44</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>2727</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1">
         <v>46</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>2397</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="1">
         <v>48</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <v>2722</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1">
         <v>50</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>2409</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="1">
         <v>52</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <v>2710</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1">
         <v>54</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>2416</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="1">
         <v>56</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <v>2739</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1">
         <v>58</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>2433</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="7"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="1">
         <v>60</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>2704</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1">
         <v>62</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>2409</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="1">
         <v>64</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>2761</v>
       </c>
     </row>
@@ -3560,4 +3825,1166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C523F4-74B3-4E7D-8BAC-552A17169E6B}">
+  <dimension ref="A1:U34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" customWidth="1"/>
+    <col min="19" max="21" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="Q1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>1</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="27">
+        <f>AVERAGE($C$3:$C$18)</f>
+        <v>2587.0625</v>
+      </c>
+      <c r="T2" s="28">
+        <f>_xlfn.STDEV.S($C$3:$C$18)</f>
+        <v>29.672588360303184</v>
+      </c>
+      <c r="U2" s="29">
+        <f>COUNT($C$3:$C$18)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2565</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2441</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="37">
+        <v>2393</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2438</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="14">
+        <f>AVERAGE($C$19:$C$34)</f>
+        <v>2412.5</v>
+      </c>
+      <c r="T3" s="15">
+        <f>_xlfn.STDEV.S($C$19:$C$34)</f>
+        <v>14.841383583300672</v>
+      </c>
+      <c r="U3" s="16">
+        <f>COUNT($C$19:$C$34)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2532</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2436</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2550</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="1">
+        <v>7</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2439</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="14">
+        <f>AVERAGE($G$3:$G$18)</f>
+        <v>2437.4375</v>
+      </c>
+      <c r="T4" s="15">
+        <f>_xlfn.STDEV.S($G$3:$G$18)</f>
+        <v>19.599213419590765</v>
+      </c>
+      <c r="U4" s="16">
+        <f>COUNT($G$3:$G$18)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2566</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="1">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2441</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="1">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2599</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="1">
+        <v>11</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2460</v>
+      </c>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="18">
+        <f>AVERAGE($G$19:$G$34)</f>
+        <v>2731.5625</v>
+      </c>
+      <c r="T5" s="19">
+        <f>_xlfn.STDEV.S($G$19:$G$34)</f>
+        <v>43.335849285935694</v>
+      </c>
+      <c r="U5" s="20">
+        <f>COUNT($G$19:$G$34)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2586</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2438</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="1">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2583</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="1">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2415</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>2</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="27">
+        <f>AVERAGE($K$4:$K$13)</f>
+        <v>2582.1999999999998</v>
+      </c>
+      <c r="T6" s="28">
+        <f>_xlfn.STDEV.S($K$4:$K$13)</f>
+        <v>23.102669398433882</v>
+      </c>
+      <c r="U6" s="29">
+        <f>COUNT($K$4:$K$13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2613</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="1">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2425</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="1">
+        <v>17</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2604</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="1">
+        <v>19</v>
+      </c>
+      <c r="O7" s="3">
+        <v>2419</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="14">
+        <f>AVERAGE($K$14:$K$24)</f>
+        <v>2396.7272727272725</v>
+      </c>
+      <c r="T7" s="15">
+        <f>_xlfn.STDEV.S($K$14:$K$24)</f>
+        <v>16.894323952682505</v>
+      </c>
+      <c r="U7" s="16">
+        <f>COUNT($K$14:$K$24)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2621</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="1">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2429</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="1">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2566</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="1">
+        <v>23</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2446</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="14">
+        <f>AVERAGE($O$3:$O$13)</f>
+        <v>2428.818181818182</v>
+      </c>
+      <c r="T8" s="15">
+        <f>_xlfn.STDEV.S($O$3:$O$13)</f>
+        <v>17.769739344279539</v>
+      </c>
+      <c r="U8" s="16">
+        <f>COUNT($O$3:$O$13)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2608</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2410</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="1">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2582</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="1">
+        <v>27</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2438</v>
+      </c>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="18">
+        <f>AVERAGE($O$14:$O$24)</f>
+        <v>2719.6363636363635</v>
+      </c>
+      <c r="T9" s="19">
+        <f>_xlfn.STDEV.S($O$14:$O$24)</f>
+        <v>33.317481079075371</v>
+      </c>
+      <c r="U9" s="20">
+        <f>COUNT($O$14:$O$24)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2631</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="1">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2462</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="1">
+        <v>29</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2558</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="1">
+        <v>31</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2394</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="33"/>
+      <c r="S10" s="34">
+        <f>AVERAGE(S2:S9)</f>
+        <v>2536.9930397727271</v>
+      </c>
+      <c r="T10" s="35">
+        <f>_xlfn.STDEV.S($C$3:$C$34,$G$3:$G$34,$K$3:$K$24,$O$3:$O$24)</f>
+        <v>132.47919662702068</v>
+      </c>
+      <c r="U10" s="36">
+        <f>SUM(U2:U9)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2564</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="1">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2443</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="1">
+        <v>33</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2561</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="1">
+        <v>35</v>
+      </c>
+      <c r="O11" s="3">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="1">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2571</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="1">
+        <v>39</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2450</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="1">
+        <v>37</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2620</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="1">
+        <v>39</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="1">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2586</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="1">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2406</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="1">
+        <v>41</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2599</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="1">
+        <v>43</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="1">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2601</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="1">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2472</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2368</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="1">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2563</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="1">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2424</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="1">
+        <v>6</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2382</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="1">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="1">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2613</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="1">
+        <v>55</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2469</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2389</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="1">
+        <v>12</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="1">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2624</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="1">
+        <v>59</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2413</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="1">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2411</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="1">
+        <v>16</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="1">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2549</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="1">
+        <v>63</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2440</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="1">
+        <v>18</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2406</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1">
+        <v>20</v>
+      </c>
+      <c r="O18" s="3">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2438</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2779</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="1">
+        <v>22</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2412</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="1">
+        <v>24</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2411</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="1">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2681</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="1">
+        <v>26</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2386</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="1">
+        <v>28</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2384</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="1">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2667</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="1">
+        <v>30</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2390</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="1">
+        <v>32</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="1">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2422</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="1">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2785</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="1">
+        <v>34</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2429</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="1">
+        <v>36</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="1">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2398</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="1">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2668</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="1">
+        <v>38</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2399</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="1">
+        <v>40</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2421</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="1">
+        <v>24</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2711</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="1">
+        <v>42</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2392</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="1">
+        <v>44</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="1">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2414</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="1">
+        <v>28</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="1">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2425</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="1">
+        <v>32</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="1">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2420</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="1">
+        <v>36</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="1">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2414</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="1">
+        <v>40</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="1">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2389</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="1">
+        <v>44</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="1">
+        <v>46</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2397</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="1">
+        <v>48</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="1">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2409</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="1">
+        <v>52</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="1">
+        <v>54</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2416</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="1">
+        <v>56</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="1">
+        <v>58</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2433</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="1">
+        <v>60</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="1">
+        <v>62</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2409</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="1">
+        <v>64</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2761</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="E3:E18"/>
+    <mergeCell ref="I3:I13"/>
+    <mergeCell ref="M3:M13"/>
+    <mergeCell ref="I14:I24"/>
+    <mergeCell ref="M14:M24"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="E19:E34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/velocity.xlsx
+++ b/velocity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TAMU\Spring_2023\final_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA72CE8E-7D01-4EA0-92AF-44370854B266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878D4B2B-340E-46A7-A8ED-6CB37FE7BF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="1764" windowWidth="22596" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="velocity" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="22">
   <si>
     <t>cnt</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Rifle</t>
   </si>
   <si>
-    <t>Amo</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -93,13 +90,26 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>W Statistic</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Shapiro-Wilk Test Normality</t>
+  </si>
+  <si>
+    <t>Brown-Forsythe Test (alpha = 0.05)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -467,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -798,6 +808,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -843,7 +937,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,15 +953,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,9 +962,6 @@
     <xf numFmtId="3" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="18" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="18" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="18" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -895,25 +977,13 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="18" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -922,6 +992,102 @@
     <xf numFmtId="3" fontId="21" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -978,6 +1144,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>410672</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F8EE0E-DC66-4853-77B5-6F1C642812A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17468850" y="133350"/>
+          <a:ext cx="7859222" cy="4029637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>20062</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>134057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423FC24E-B937-38AD-A01E-80CFC6573EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="123825"/>
+          <a:ext cx="7249537" cy="5068007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2844,24 +3103,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2905,7 +3164,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -2915,7 +3174,7 @@
         <v>2565</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1">
@@ -2924,17 +3183,17 @@
       <c r="G3" s="3">
         <v>2441</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="30" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="29">
         <v>2393</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="1">
@@ -2945,7 +3204,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -2953,14 +3212,14 @@
         <v>2532</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="1">
         <v>7</v>
       </c>
       <c r="G4" s="3">
         <v>2436</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="31"/>
       <c r="J4" s="1">
         <v>5</v>
       </c>
@@ -2968,7 +3227,7 @@
         <v>2550</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="10"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="1">
         <v>7</v>
       </c>
@@ -2977,7 +3236,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="1">
         <v>9</v>
       </c>
@@ -2985,14 +3244,14 @@
         <v>2566</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="1">
         <v>11</v>
       </c>
       <c r="G5" s="3">
         <v>2441</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="1">
         <v>9</v>
       </c>
@@ -3000,7 +3259,7 @@
         <v>2599</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="10"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="1">
         <v>11</v>
       </c>
@@ -3009,7 +3268,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="1">
         <v>13</v>
       </c>
@@ -3017,14 +3276,14 @@
         <v>2586</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="1">
         <v>15</v>
       </c>
       <c r="G6" s="3">
         <v>2438</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="1">
         <v>13</v>
       </c>
@@ -3032,7 +3291,7 @@
         <v>2583</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="1">
         <v>15</v>
       </c>
@@ -3041,7 +3300,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="1">
         <v>17</v>
       </c>
@@ -3049,14 +3308,14 @@
         <v>2613</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="1">
         <v>19</v>
       </c>
       <c r="G7" s="3">
         <v>2425</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="1">
         <v>17</v>
       </c>
@@ -3064,7 +3323,7 @@
         <v>2604</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="1">
         <v>19</v>
       </c>
@@ -3073,7 +3332,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1">
         <v>21</v>
       </c>
@@ -3081,14 +3340,14 @@
         <v>2621</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="1">
         <v>23</v>
       </c>
       <c r="G8" s="3">
         <v>2429</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="1">
         <v>21</v>
       </c>
@@ -3096,7 +3355,7 @@
         <v>2566</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="1">
         <v>23</v>
       </c>
@@ -3105,7 +3364,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="1">
         <v>25</v>
       </c>
@@ -3113,14 +3372,14 @@
         <v>2608</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="1">
         <v>27</v>
       </c>
       <c r="G9" s="3">
         <v>2410</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="1">
         <v>25</v>
       </c>
@@ -3128,7 +3387,7 @@
         <v>2582</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="10"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="1">
         <v>27</v>
       </c>
@@ -3137,7 +3396,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="1">
         <v>29</v>
       </c>
@@ -3145,14 +3404,14 @@
         <v>2631</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="1">
         <v>31</v>
       </c>
       <c r="G10" s="3">
         <v>2462</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="1">
         <v>29</v>
       </c>
@@ -3160,7 +3419,7 @@
         <v>2558</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="10"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="1">
         <v>31</v>
       </c>
@@ -3169,7 +3428,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="1">
         <v>33</v>
       </c>
@@ -3177,14 +3436,14 @@
         <v>2564</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="1">
         <v>35</v>
       </c>
       <c r="G11" s="3">
         <v>2443</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="1">
         <v>33</v>
       </c>
@@ -3192,7 +3451,7 @@
         <v>2561</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="10"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="1">
         <v>35</v>
       </c>
@@ -3201,7 +3460,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1">
         <v>37</v>
       </c>
@@ -3209,14 +3468,14 @@
         <v>2571</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="1">
         <v>39</v>
       </c>
       <c r="G12" s="3">
         <v>2450</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="1">
         <v>37</v>
       </c>
@@ -3224,7 +3483,7 @@
         <v>2620</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="10"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="1">
         <v>39</v>
       </c>
@@ -3233,7 +3492,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="1">
         <v>41</v>
       </c>
@@ -3241,14 +3500,14 @@
         <v>2586</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1">
         <v>43</v>
       </c>
       <c r="G13" s="3">
         <v>2406</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="1">
         <v>41</v>
       </c>
@@ -3256,7 +3515,7 @@
         <v>2599</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="11"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="1">
         <v>43</v>
       </c>
@@ -3265,7 +3524,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="1">
         <v>45</v>
       </c>
@@ -3273,14 +3532,14 @@
         <v>2601</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="1">
         <v>47</v>
       </c>
       <c r="G14" s="3">
         <v>2472</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="30" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="1">
@@ -3290,7 +3549,7 @@
         <v>2368</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="30" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="1">
@@ -3301,7 +3560,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="1">
         <v>49</v>
       </c>
@@ -3309,14 +3568,14 @@
         <v>2563</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="1">
         <v>51</v>
       </c>
       <c r="G15" s="3">
         <v>2424</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="1">
         <v>6</v>
       </c>
@@ -3324,7 +3583,7 @@
         <v>2382</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="10"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="1">
         <v>8</v>
       </c>
@@ -3333,7 +3592,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="1">
         <v>53</v>
       </c>
@@ -3341,14 +3600,14 @@
         <v>2613</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="1">
         <v>55</v>
       </c>
       <c r="G16" s="3">
         <v>2469</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="1">
         <v>10</v>
       </c>
@@ -3356,7 +3615,7 @@
         <v>2389</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="10"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="1">
         <v>12</v>
       </c>
@@ -3365,7 +3624,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="1">
         <v>57</v>
       </c>
@@ -3373,14 +3632,14 @@
         <v>2624</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="1">
         <v>59</v>
       </c>
       <c r="G17" s="3">
         <v>2413</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="1">
         <v>14</v>
       </c>
@@ -3388,7 +3647,7 @@
         <v>2411</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="10"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="1">
         <v>16</v>
       </c>
@@ -3397,7 +3656,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="1">
         <v>61</v>
       </c>
@@ -3405,14 +3664,14 @@
         <v>2549</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="1">
         <v>63</v>
       </c>
       <c r="G18" s="3">
         <v>2440</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="1">
         <v>18</v>
       </c>
@@ -3420,7 +3679,7 @@
         <v>2406</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="10"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="1">
         <v>20</v>
       </c>
@@ -3429,7 +3688,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1">
@@ -3439,7 +3698,7 @@
         <v>2438</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="30" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1">
@@ -3448,7 +3707,7 @@
       <c r="G19" s="3">
         <v>2779</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="1">
         <v>22</v>
       </c>
@@ -3456,7 +3715,7 @@
         <v>2412</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="10"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="1">
         <v>24</v>
       </c>
@@ -3465,7 +3724,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -3473,14 +3732,14 @@
         <v>2411</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="1">
         <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>2681</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="1">
         <v>26</v>
       </c>
@@ -3488,7 +3747,7 @@
         <v>2386</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="1">
         <v>28</v>
       </c>
@@ -3497,7 +3756,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -3505,14 +3764,14 @@
         <v>2384</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="1">
         <v>12</v>
       </c>
       <c r="G21" s="3">
         <v>2667</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="1">
         <v>30</v>
       </c>
@@ -3520,7 +3779,7 @@
         <v>2390</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="10"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="1">
         <v>32</v>
       </c>
@@ -3529,7 +3788,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="1">
         <v>14</v>
       </c>
@@ -3537,14 +3796,14 @@
         <v>2422</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="1">
         <v>16</v>
       </c>
       <c r="G22" s="3">
         <v>2785</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="1">
         <v>34</v>
       </c>
@@ -3552,7 +3811,7 @@
         <v>2429</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="1">
         <v>36</v>
       </c>
@@ -3561,7 +3820,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -3569,14 +3828,14 @@
         <v>2398</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="10"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="3">
         <v>2668</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="31"/>
       <c r="J23" s="1">
         <v>38</v>
       </c>
@@ -3584,7 +3843,7 @@
         <v>2399</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="1">
         <v>40</v>
       </c>
@@ -3593,7 +3852,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -3601,14 +3860,14 @@
         <v>2421</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="1">
         <v>24</v>
       </c>
       <c r="G24" s="3">
         <v>2711</v>
       </c>
-      <c r="I24" s="11"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="1">
         <v>42</v>
       </c>
@@ -3616,7 +3875,7 @@
         <v>2392</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="11"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="1">
         <v>44</v>
       </c>
@@ -3625,7 +3884,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="1">
         <v>26</v>
       </c>
@@ -3633,7 +3892,7 @@
         <v>2414</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="1">
         <v>28</v>
       </c>
@@ -3642,7 +3901,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="1">
         <v>30</v>
       </c>
@@ -3650,7 +3909,7 @@
         <v>2425</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="1">
         <v>32</v>
       </c>
@@ -3659,7 +3918,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="1">
         <v>34</v>
       </c>
@@ -3667,7 +3926,7 @@
         <v>2420</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="1">
         <v>36</v>
       </c>
@@ -3676,7 +3935,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="1">
         <v>38</v>
       </c>
@@ -3684,7 +3943,7 @@
         <v>2414</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="1">
         <v>40</v>
       </c>
@@ -3693,7 +3952,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="1">
         <v>42</v>
       </c>
@@ -3701,7 +3960,7 @@
         <v>2389</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="1">
         <v>44</v>
       </c>
@@ -3710,7 +3969,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="1">
         <v>46</v>
       </c>
@@ -3718,7 +3977,7 @@
         <v>2397</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="1">
         <v>48</v>
       </c>
@@ -3727,7 +3986,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="1">
         <v>50</v>
       </c>
@@ -3735,7 +3994,7 @@
         <v>2409</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="1">
         <v>52</v>
       </c>
@@ -3744,7 +4003,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="1">
         <v>54</v>
       </c>
@@ -3752,7 +4011,7 @@
         <v>2416</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="1">
         <v>56</v>
       </c>
@@ -3761,7 +4020,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="1">
         <v>58</v>
       </c>
@@ -3769,7 +4028,7 @@
         <v>2433</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="1">
         <v>60</v>
       </c>
@@ -3778,7 +4037,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="1">
         <v>62</v>
       </c>
@@ -3786,7 +4045,7 @@
         <v>2409</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="1">
         <v>64</v>
       </c>
@@ -3829,10 +4088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C523F4-74B3-4E7D-8BAC-552A17169E6B}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3852,45 +4111,61 @@
     <col min="17" max="17" width="8.6640625" customWidth="1"/>
     <col min="18" max="18" width="8.44140625" customWidth="1"/>
     <col min="19" max="21" width="10.21875" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" customWidth="1"/>
+    <col min="27" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="I1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="Q1" s="21" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="Q1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="W1" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="58"/>
+      <c r="AA1" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="58"/>
+    </row>
+    <row r="2" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3906,11 +4181,11 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="44" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -3926,30 +4201,42 @@
       <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="25">
-        <v>1</v>
-      </c>
-      <c r="R2" s="26" t="s">
+      <c r="Q2" s="34">
+        <v>1</v>
+      </c>
+      <c r="R2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="22">
         <f>AVERAGE($C$3:$C$18)</f>
         <v>2587.0625</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="23">
         <f>_xlfn.STDEV.S($C$3:$C$18)</f>
         <v>29.672588360303184</v>
       </c>
-      <c r="U2" s="29">
+      <c r="U2" s="24">
         <f>COUNT($C$3:$C$18)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="W2" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="60"/>
+    </row>
+    <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -3959,53 +4246,65 @@
         <v>2565</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="47">
         <v>2441</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="29">
         <v>2393</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="1">
         <v>3</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="47">
         <v>2438</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="13" t="s">
+      <c r="Q3" s="35"/>
+      <c r="R3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="11">
         <f>AVERAGE($C$19:$C$34)</f>
         <v>2412.5</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="12">
         <f>_xlfn.STDEV.S($C$19:$C$34)</f>
         <v>14.841383583300672</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="13">
         <f>COUNT($C$19:$C$34)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="W3" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" s="40">
+        <v>0.96</v>
+      </c>
+      <c r="Y3" s="62">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="62"/>
+    </row>
+    <row r="4" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="54"/>
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -4013,14 +4312,14 @@
         <v>2532</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="1">
         <v>7</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="47">
         <v>2436</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="1">
         <v>5</v>
       </c>
@@ -4028,32 +4327,44 @@
         <v>2550</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="10"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="1">
         <v>7</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="47">
         <v>2439</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="13" t="s">
+      <c r="Q4" s="35"/>
+      <c r="R4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="11">
         <f>AVERAGE($G$3:$G$18)</f>
         <v>2437.4375</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="12">
         <f>_xlfn.STDEV.S($G$3:$G$18)</f>
         <v>19.599213419590765</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="13">
         <f>COUNT($G$3:$G$18)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
+      <c r="W4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="39">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="Y4" s="62">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="62"/>
+    </row>
+    <row r="5" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="54"/>
       <c r="B5" s="1">
         <v>9</v>
       </c>
@@ -4061,14 +4372,14 @@
         <v>2566</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="1">
         <v>11</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="47">
         <v>2441</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="1">
         <v>9</v>
       </c>
@@ -4076,32 +4387,44 @@
         <v>2599</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="10"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="1">
         <v>11</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="47">
         <v>2460</v>
       </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="31" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="14">
         <f>AVERAGE($G$19:$G$34)</f>
         <v>2731.5625</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="15">
         <f>_xlfn.STDEV.S($G$19:$G$34)</f>
         <v>43.335849285935694</v>
       </c>
-      <c r="U5" s="20">
+      <c r="U5" s="16">
         <f>COUNT($G$19:$G$34)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="W5" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="39">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="Y5" s="62">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="62"/>
+    </row>
+    <row r="6" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="54"/>
       <c r="B6" s="1">
         <v>13</v>
       </c>
@@ -4109,14 +4432,14 @@
         <v>2586</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="1">
         <v>15</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="47">
         <v>2438</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="1">
         <v>13</v>
       </c>
@@ -4124,34 +4447,46 @@
         <v>2583</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="1">
         <v>15</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="47">
         <v>2415</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="34">
         <v>2</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="22">
         <f>AVERAGE($K$4:$K$13)</f>
         <v>2582.1999999999998</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="23">
         <f>_xlfn.STDEV.S($K$4:$K$13)</f>
         <v>23.102669398433882</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="24">
         <f>COUNT($K$4:$K$13)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="W6" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="64">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="Y6" s="65">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="65"/>
+    </row>
+    <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="54"/>
       <c r="B7" s="1">
         <v>17</v>
       </c>
@@ -4159,14 +4494,14 @@
         <v>2613</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="1">
         <v>19</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="47">
         <v>2425</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="1">
         <v>17</v>
       </c>
@@ -4174,32 +4509,32 @@
         <v>2604</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="1">
         <v>19</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="47">
         <v>2419</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="13" t="s">
+      <c r="Q7" s="35"/>
+      <c r="R7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="11">
         <f>AVERAGE($K$14:$K$24)</f>
         <v>2396.7272727272725</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="12">
         <f>_xlfn.STDEV.S($K$14:$K$24)</f>
         <v>16.894323952682505</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="13">
         <f>COUNT($K$14:$K$24)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="54"/>
       <c r="B8" s="1">
         <v>21</v>
       </c>
@@ -4207,14 +4542,14 @@
         <v>2621</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="1">
         <v>23</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="47">
         <v>2429</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="1">
         <v>21</v>
       </c>
@@ -4222,32 +4557,32 @@
         <v>2566</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="1">
         <v>23</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="47">
         <v>2446</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="13" t="s">
+      <c r="Q8" s="35"/>
+      <c r="R8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="11">
         <f>AVERAGE($O$3:$O$13)</f>
         <v>2428.818181818182</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="12">
         <f>_xlfn.STDEV.S($O$3:$O$13)</f>
         <v>17.769739344279539</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="13">
         <f>COUNT($O$3:$O$13)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="54"/>
       <c r="B9" s="1">
         <v>25</v>
       </c>
@@ -4255,14 +4590,14 @@
         <v>2608</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="1">
         <v>27</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="47">
         <v>2410</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="1">
         <v>25</v>
       </c>
@@ -4270,32 +4605,32 @@
         <v>2582</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="10"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="1">
         <v>27</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="47">
         <v>2438</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="31" t="s">
+      <c r="Q9" s="36"/>
+      <c r="R9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="14">
         <f>AVERAGE($O$14:$O$24)</f>
         <v>2719.6363636363635</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="15">
         <f>_xlfn.STDEV.S($O$14:$O$24)</f>
         <v>33.317481079075371</v>
       </c>
-      <c r="U9" s="20">
+      <c r="U9" s="16">
         <f>COUNT($O$14:$O$24)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="54"/>
       <c r="B10" s="1">
         <v>29</v>
       </c>
@@ -4303,14 +4638,14 @@
         <v>2631</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="1">
         <v>31</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="47">
         <v>2462</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="1">
         <v>29</v>
       </c>
@@ -4318,32 +4653,32 @@
         <v>2558</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="10"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="1">
         <v>31</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="47">
         <v>2394</v>
       </c>
-      <c r="Q10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="34">
+      <c r="Q10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="26">
         <f>AVERAGE(S2:S9)</f>
         <v>2536.9930397727271</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T10" s="27">
         <f>_xlfn.STDEV.S($C$3:$C$34,$G$3:$G$34,$K$3:$K$24,$O$3:$O$24)</f>
         <v>132.47919662702068</v>
       </c>
-      <c r="U10" s="36">
+      <c r="U10" s="28">
         <f>SUM(U2:U9)</f>
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
       <c r="B11" s="1">
         <v>33</v>
       </c>
@@ -4351,14 +4686,14 @@
         <v>2564</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="1">
         <v>35</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="47">
         <v>2443</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="1">
         <v>33</v>
       </c>
@@ -4366,16 +4701,16 @@
         <v>2561</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="10"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="1">
         <v>35</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="47">
         <v>2423</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
       <c r="B12" s="1">
         <v>37</v>
       </c>
@@ -4383,14 +4718,14 @@
         <v>2571</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="1">
         <v>39</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="47">
         <v>2450</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="1">
         <v>37</v>
       </c>
@@ -4398,16 +4733,16 @@
         <v>2620</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="10"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="1">
         <v>39</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="47">
         <v>2424</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
       <c r="B13" s="1">
         <v>41</v>
       </c>
@@ -4415,14 +4750,14 @@
         <v>2586</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="1">
         <v>43</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="47">
         <v>2406</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="1">
         <v>41</v>
       </c>
@@ -4430,16 +4765,16 @@
         <v>2599</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="11"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="1">
         <v>43</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="47">
         <v>2421</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
       <c r="B14" s="1">
         <v>45</v>
       </c>
@@ -4447,14 +4782,14 @@
         <v>2601</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="1">
         <v>47</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="47">
         <v>2472</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="46" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="1">
@@ -4464,18 +4799,18 @@
         <v>2368</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="30" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="47">
         <v>2753</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
       <c r="B15" s="1">
         <v>49</v>
       </c>
@@ -4483,14 +4818,14 @@
         <v>2563</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="1">
         <v>51</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="47">
         <v>2424</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="1">
         <v>6</v>
       </c>
@@ -4498,16 +4833,16 @@
         <v>2382</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="10"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="1">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="47">
         <v>2688</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
       <c r="B16" s="1">
         <v>53</v>
       </c>
@@ -4515,14 +4850,14 @@
         <v>2613</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="1">
         <v>55</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="47">
         <v>2469</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="1">
         <v>10</v>
       </c>
@@ -4530,16 +4865,16 @@
         <v>2389</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="10"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="1">
         <v>12</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="47">
         <v>2773</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="1">
         <v>57</v>
       </c>
@@ -4547,14 +4882,14 @@
         <v>2624</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="1">
         <v>59</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="47">
         <v>2413</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="1">
         <v>14</v>
       </c>
@@ -4562,16 +4897,16 @@
         <v>2411</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="10"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="1">
         <v>16</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="47">
         <v>2741</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="1">
         <v>61</v>
       </c>
@@ -4579,14 +4914,14 @@
         <v>2549</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="1">
         <v>63</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="47">
         <v>2440</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="1">
         <v>18</v>
       </c>
@@ -4594,16 +4929,16 @@
         <v>2406</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="10"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="1">
         <v>20</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="47">
         <v>2692</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1">
@@ -4613,16 +4948,16 @@
         <v>2438</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="30" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="47">
         <v>2779</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="1">
         <v>22</v>
       </c>
@@ -4630,16 +4965,16 @@
         <v>2412</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="10"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="1">
         <v>24</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="47">
         <v>2740</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -4647,14 +4982,14 @@
         <v>2411</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="1">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="47">
         <v>2681</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="1">
         <v>26</v>
       </c>
@@ -4662,16 +4997,16 @@
         <v>2386</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="1">
         <v>28</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="47">
         <v>2737</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -4679,14 +5014,14 @@
         <v>2384</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="1">
         <v>12</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="47">
         <v>2667</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="1">
         <v>30</v>
       </c>
@@ -4694,16 +5029,16 @@
         <v>2390</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="10"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="1">
         <v>32</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="47">
         <v>2676</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="1">
         <v>14</v>
       </c>
@@ -4711,14 +5046,14 @@
         <v>2422</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="1">
         <v>16</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="47">
         <v>2785</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="1">
         <v>34</v>
       </c>
@@ -4726,16 +5061,16 @@
         <v>2429</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="1">
         <v>36</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="47">
         <v>2725</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -4743,14 +5078,14 @@
         <v>2398</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="10"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="47">
         <v>2668</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="1">
         <v>38</v>
       </c>
@@ -4758,16 +5093,16 @@
         <v>2399</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="1">
         <v>40</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="47">
         <v>2719</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="54"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -4775,31 +5110,31 @@
         <v>2421</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="1">
         <v>24</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="47">
         <v>2711</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="1">
+      <c r="I24" s="36"/>
+      <c r="J24" s="49">
         <v>42</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="50">
         <v>2392</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="1">
+      <c r="L24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="49">
         <v>44</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="53">
         <v>2672</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="1">
         <v>26</v>
       </c>
@@ -4807,16 +5142,16 @@
         <v>2414</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="1">
         <v>28</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="47">
         <v>2794</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="1">
         <v>30</v>
       </c>
@@ -4824,16 +5159,16 @@
         <v>2425</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="1">
         <v>32</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="47">
         <v>2712</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="1">
         <v>34</v>
       </c>
@@ -4841,16 +5176,16 @@
         <v>2420</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="1">
         <v>36</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="47">
         <v>2741</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="1">
         <v>38</v>
       </c>
@@ -4858,16 +5193,16 @@
         <v>2414</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="1">
         <v>40</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="47">
         <v>2804</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="1">
         <v>42</v>
       </c>
@@ -4875,16 +5210,16 @@
         <v>2389</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="1">
         <v>44</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="47">
         <v>2727</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="1">
         <v>46</v>
       </c>
@@ -4892,16 +5227,16 @@
         <v>2397</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="1">
         <v>48</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="47">
         <v>2722</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="1">
         <v>50</v>
       </c>
@@ -4909,16 +5244,16 @@
         <v>2409</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="1">
         <v>52</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="47">
         <v>2710</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="1">
         <v>54</v>
       </c>
@@ -4926,16 +5261,16 @@
         <v>2416</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="1">
         <v>56</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="47">
         <v>2739</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="1">
         <v>58</v>
       </c>
@@ -4943,33 +5278,35 @@
         <v>2433</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="1">
         <v>60</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="47">
         <v>2704</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="1">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="55"/>
+      <c r="B34" s="49">
         <v>62</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="50">
         <v>2409</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="1">
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="49">
         <v>64</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="53">
         <v>2761</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="Q2:Q5"/>
     <mergeCell ref="Q6:Q9"/>
     <mergeCell ref="Q10:R10"/>
@@ -4986,5 +5323,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/velocity.xlsx
+++ b/velocity.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TAMU\Spring_2023\final_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878D4B2B-340E-46A7-A8ED-6CB37FE7BF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7D8A68-EC00-4F47-B154-FB5DD08D77EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="1764" windowWidth="22596" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="velocity" sheetId="1" r:id="rId1"/>
     <sheet name="wide" sheetId="2" r:id="rId2"/>
     <sheet name="summary table" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="40">
   <si>
     <t>cnt</t>
   </si>
@@ -102,16 +103,104 @@
   <si>
     <t>Brown-Forsythe Test (alpha = 0.05)</t>
   </si>
+  <si>
+    <t>Ammunition</t>
+  </si>
+  <si>
+    <t>Statistic W</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shapiro–Wilk Test</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(H˳: Ammo Velocities are not normal)</t>
+    </r>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>&lt;2e-16</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Ammo:Count</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SSM</t>
+  </si>
+  <si>
+    <t>F-Value</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Significance</t>
+  </si>
+  <si>
+    <t>&gt;99%</t>
+  </si>
+  <si>
+    <t>Not Sig</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +366,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,6 +589,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -937,7 +1062,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,6 +1117,42 @@
     <xf numFmtId="3" fontId="21" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,6 +1164,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,8 +1189,6 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,64 +1198,67 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="24" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="24" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3103,24 +3274,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="I1" s="33" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3164,7 +3335,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -3174,7 +3345,7 @@
         <v>2565</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1">
@@ -3183,7 +3354,7 @@
       <c r="G3" s="3">
         <v>2441</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1">
@@ -3193,7 +3364,7 @@
         <v>2393</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="1">
@@ -3204,7 +3375,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -3212,14 +3383,14 @@
         <v>2532</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="31"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="1">
         <v>7</v>
       </c>
       <c r="G4" s="3">
         <v>2436</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="1">
         <v>5</v>
       </c>
@@ -3227,7 +3398,7 @@
         <v>2550</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="31"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1">
         <v>7</v>
       </c>
@@ -3236,7 +3407,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="1">
         <v>9</v>
       </c>
@@ -3244,14 +3415,14 @@
         <v>2566</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="31"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="1">
         <v>11</v>
       </c>
       <c r="G5" s="3">
         <v>2441</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="1">
         <v>9</v>
       </c>
@@ -3259,7 +3430,7 @@
         <v>2599</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="31"/>
+      <c r="M5" s="47"/>
       <c r="N5" s="1">
         <v>11</v>
       </c>
@@ -3268,7 +3439,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="1">
         <v>13</v>
       </c>
@@ -3276,14 +3447,14 @@
         <v>2586</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="31"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="1">
         <v>15</v>
       </c>
       <c r="G6" s="3">
         <v>2438</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="1">
         <v>13</v>
       </c>
@@ -3291,7 +3462,7 @@
         <v>2583</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="31"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="1">
         <v>15</v>
       </c>
@@ -3300,7 +3471,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="1">
         <v>17</v>
       </c>
@@ -3308,14 +3479,14 @@
         <v>2613</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="31"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="1">
         <v>19</v>
       </c>
       <c r="G7" s="3">
         <v>2425</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="1">
         <v>17</v>
       </c>
@@ -3323,7 +3494,7 @@
         <v>2604</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="31"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="1">
         <v>19</v>
       </c>
@@ -3332,7 +3503,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="1">
         <v>21</v>
       </c>
@@ -3340,14 +3511,14 @@
         <v>2621</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="31"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="1">
         <v>23</v>
       </c>
       <c r="G8" s="3">
         <v>2429</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="1">
         <v>21</v>
       </c>
@@ -3355,7 +3526,7 @@
         <v>2566</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="31"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="1">
         <v>23</v>
       </c>
@@ -3364,7 +3535,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="1">
         <v>25</v>
       </c>
@@ -3372,14 +3543,14 @@
         <v>2608</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="1">
         <v>27</v>
       </c>
       <c r="G9" s="3">
         <v>2410</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="1">
         <v>25</v>
       </c>
@@ -3387,7 +3558,7 @@
         <v>2582</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="31"/>
+      <c r="M9" s="47"/>
       <c r="N9" s="1">
         <v>27</v>
       </c>
@@ -3396,7 +3567,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="1">
         <v>29</v>
       </c>
@@ -3404,14 +3575,14 @@
         <v>2631</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="31"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="1">
         <v>31</v>
       </c>
       <c r="G10" s="3">
         <v>2462</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="1">
         <v>29</v>
       </c>
@@ -3419,7 +3590,7 @@
         <v>2558</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="31"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="1">
         <v>31</v>
       </c>
@@ -3428,7 +3599,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="1">
         <v>33</v>
       </c>
@@ -3436,14 +3607,14 @@
         <v>2564</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="1">
         <v>35</v>
       </c>
       <c r="G11" s="3">
         <v>2443</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="1">
         <v>33</v>
       </c>
@@ -3451,7 +3622,7 @@
         <v>2561</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="31"/>
+      <c r="M11" s="47"/>
       <c r="N11" s="1">
         <v>35</v>
       </c>
@@ -3460,7 +3631,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="1">
         <v>37</v>
       </c>
@@ -3468,14 +3639,14 @@
         <v>2571</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="1">
         <v>39</v>
       </c>
       <c r="G12" s="3">
         <v>2450</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="1">
         <v>37</v>
       </c>
@@ -3483,7 +3654,7 @@
         <v>2620</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="31"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="1">
         <v>39</v>
       </c>
@@ -3492,7 +3663,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="1">
         <v>41</v>
       </c>
@@ -3500,14 +3671,14 @@
         <v>2586</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="1">
         <v>43</v>
       </c>
       <c r="G13" s="3">
         <v>2406</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="1">
         <v>41</v>
       </c>
@@ -3515,7 +3686,7 @@
         <v>2599</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="32"/>
+      <c r="M13" s="48"/>
       <c r="N13" s="1">
         <v>43</v>
       </c>
@@ -3524,7 +3695,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="1">
         <v>45</v>
       </c>
@@ -3532,14 +3703,14 @@
         <v>2601</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="1">
         <v>47</v>
       </c>
       <c r="G14" s="3">
         <v>2472</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="46" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="1">
@@ -3549,7 +3720,7 @@
         <v>2368</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="46" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="1">
@@ -3560,7 +3731,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="1">
         <v>49</v>
       </c>
@@ -3568,14 +3739,14 @@
         <v>2563</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="1">
         <v>51</v>
       </c>
       <c r="G15" s="3">
         <v>2424</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="1">
         <v>6</v>
       </c>
@@ -3583,7 +3754,7 @@
         <v>2382</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="31"/>
+      <c r="M15" s="47"/>
       <c r="N15" s="1">
         <v>8</v>
       </c>
@@ -3592,7 +3763,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="1">
         <v>53</v>
       </c>
@@ -3600,14 +3771,14 @@
         <v>2613</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="31"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="1">
         <v>55</v>
       </c>
       <c r="G16" s="3">
         <v>2469</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="1">
         <v>10</v>
       </c>
@@ -3615,7 +3786,7 @@
         <v>2389</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="31"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="1">
         <v>12</v>
       </c>
@@ -3624,7 +3795,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="1">
         <v>57</v>
       </c>
@@ -3632,14 +3803,14 @@
         <v>2624</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="31"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="1">
         <v>59</v>
       </c>
       <c r="G17" s="3">
         <v>2413</v>
       </c>
-      <c r="I17" s="31"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="1">
         <v>14</v>
       </c>
@@ -3647,7 +3818,7 @@
         <v>2411</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="31"/>
+      <c r="M17" s="47"/>
       <c r="N17" s="1">
         <v>16</v>
       </c>
@@ -3656,7 +3827,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="1">
         <v>61</v>
       </c>
@@ -3664,14 +3835,14 @@
         <v>2549</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="1">
         <v>63</v>
       </c>
       <c r="G18" s="3">
         <v>2440</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="1">
         <v>18</v>
       </c>
@@ -3679,7 +3850,7 @@
         <v>2406</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="31"/>
+      <c r="M18" s="47"/>
       <c r="N18" s="1">
         <v>20</v>
       </c>
@@ -3688,7 +3859,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1">
@@ -3698,7 +3869,7 @@
         <v>2438</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="46" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1">
@@ -3707,7 +3878,7 @@
       <c r="G19" s="3">
         <v>2779</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="1">
         <v>22</v>
       </c>
@@ -3715,7 +3886,7 @@
         <v>2412</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="31"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="1">
         <v>24</v>
       </c>
@@ -3724,7 +3895,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -3732,14 +3903,14 @@
         <v>2411</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="1">
         <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>2681</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="1">
         <v>26</v>
       </c>
@@ -3747,7 +3918,7 @@
         <v>2386</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="31"/>
+      <c r="M20" s="47"/>
       <c r="N20" s="1">
         <v>28</v>
       </c>
@@ -3756,7 +3927,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -3764,14 +3935,14 @@
         <v>2384</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="1">
         <v>12</v>
       </c>
       <c r="G21" s="3">
         <v>2667</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="1">
         <v>30</v>
       </c>
@@ -3779,7 +3950,7 @@
         <v>2390</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="31"/>
+      <c r="M21" s="47"/>
       <c r="N21" s="1">
         <v>32</v>
       </c>
@@ -3788,7 +3959,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="1">
         <v>14</v>
       </c>
@@ -3796,14 +3967,14 @@
         <v>2422</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="1">
         <v>16</v>
       </c>
       <c r="G22" s="3">
         <v>2785</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="1">
         <v>34</v>
       </c>
@@ -3811,7 +3982,7 @@
         <v>2429</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="31"/>
+      <c r="M22" s="47"/>
       <c r="N22" s="1">
         <v>36</v>
       </c>
@@ -3820,7 +3991,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -3828,14 +3999,14 @@
         <v>2398</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="3">
         <v>2668</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="1">
         <v>38</v>
       </c>
@@ -3843,7 +4014,7 @@
         <v>2399</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="31"/>
+      <c r="M23" s="47"/>
       <c r="N23" s="1">
         <v>40</v>
       </c>
@@ -3852,7 +4023,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -3860,14 +4031,14 @@
         <v>2421</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="1">
         <v>24</v>
       </c>
       <c r="G24" s="3">
         <v>2711</v>
       </c>
-      <c r="I24" s="32"/>
+      <c r="I24" s="48"/>
       <c r="J24" s="1">
         <v>42</v>
       </c>
@@ -3875,7 +4046,7 @@
         <v>2392</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="32"/>
+      <c r="M24" s="48"/>
       <c r="N24" s="1">
         <v>44</v>
       </c>
@@ -3884,7 +4055,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="1">
         <v>26</v>
       </c>
@@ -3892,7 +4063,7 @@
         <v>2414</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="31"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="1">
         <v>28</v>
       </c>
@@ -3901,7 +4072,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="1">
         <v>30</v>
       </c>
@@ -3909,7 +4080,7 @@
         <v>2425</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="1">
         <v>32</v>
       </c>
@@ -3918,7 +4089,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="1">
         <v>34</v>
       </c>
@@ -3926,7 +4097,7 @@
         <v>2420</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="1">
         <v>36</v>
       </c>
@@ -3935,7 +4106,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="1">
         <v>38</v>
       </c>
@@ -3943,7 +4114,7 @@
         <v>2414</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="1">
         <v>40</v>
       </c>
@@ -3952,7 +4123,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="1">
         <v>42</v>
       </c>
@@ -3960,7 +4131,7 @@
         <v>2389</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="1">
         <v>44</v>
       </c>
@@ -3969,7 +4140,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="1">
         <v>46</v>
       </c>
@@ -3977,7 +4148,7 @@
         <v>2397</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="1">
         <v>48</v>
       </c>
@@ -3986,7 +4157,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="1">
         <v>50</v>
       </c>
@@ -3994,7 +4165,7 @@
         <v>2409</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="1">
         <v>52</v>
       </c>
@@ -4003,7 +4174,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="1">
         <v>54</v>
       </c>
@@ -4011,7 +4182,7 @@
         <v>2416</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="1">
         <v>56</v>
       </c>
@@ -4020,7 +4191,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="1">
         <v>58</v>
       </c>
@@ -4028,7 +4199,7 @@
         <v>2433</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="1">
         <v>60</v>
       </c>
@@ -4037,7 +4208,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="1">
         <v>62</v>
       </c>
@@ -4045,7 +4216,7 @@
         <v>2409</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="32"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="1">
         <v>64</v>
       </c>
@@ -4090,7 +4261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C523F4-74B3-4E7D-8BAC-552A17169E6B}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
@@ -4120,24 +4291,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="I1" s="41" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="I1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="60"/>
       <c r="Q1" s="17" t="s">
         <v>13</v>
       </c>
@@ -4153,19 +4324,19 @@
       <c r="U1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="56" t="s">
+      <c r="W1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="58"/>
-      <c r="AA1" s="56" t="s">
+      <c r="X1" s="51"/>
+      <c r="Y1" s="52"/>
+      <c r="AA1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="58"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="52"/>
     </row>
     <row r="2" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4181,11 +4352,11 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="33" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -4201,10 +4372,10 @@
       <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="53">
         <v>1</v>
       </c>
       <c r="R2" s="21" t="s">
@@ -4222,21 +4393,21 @@
         <f>COUNT($C$3:$C$18)</f>
         <v>16</v>
       </c>
-      <c r="W2" s="59" t="s">
+      <c r="W2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="60" t="s">
+      <c r="Y2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="59"/>
+      <c r="AA2" s="39"/>
       <c r="AB2" s="9"/>
-      <c r="AC2" s="60"/>
+      <c r="AC2" s="40"/>
     </row>
     <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -4246,16 +4417,16 @@
         <v>2565</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="34">
         <v>2441</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="62" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1">
@@ -4265,16 +4436,16 @@
         <v>2393</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="1">
         <v>3</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="34">
         <v>2438</v>
       </c>
-      <c r="Q3" s="35"/>
+      <c r="Q3" s="54"/>
       <c r="R3" s="10" t="s">
         <v>5</v>
       </c>
@@ -4290,21 +4461,21 @@
         <f>COUNT($C$19:$C$34)</f>
         <v>16</v>
       </c>
-      <c r="W3" s="61" t="s">
+      <c r="W3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="40">
+      <c r="X3" s="31">
         <v>0.96</v>
       </c>
-      <c r="Y3" s="62">
+      <c r="Y3" s="42">
         <v>0.39100000000000001</v>
       </c>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="62"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="42"/>
     </row>
     <row r="4" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -4312,14 +4483,14 @@
         <v>2532</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="31"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="1">
         <v>7</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="34">
         <v>2436</v>
       </c>
-      <c r="I4" s="35"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="1">
         <v>5</v>
       </c>
@@ -4327,14 +4498,14 @@
         <v>2550</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="31"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="1">
         <v>7</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="34">
         <v>2439</v>
       </c>
-      <c r="Q4" s="35"/>
+      <c r="Q4" s="54"/>
       <c r="R4" s="10" t="s">
         <v>6</v>
       </c>
@@ -4350,21 +4521,21 @@
         <f>COUNT($G$3:$G$18)</f>
         <v>16</v>
       </c>
-      <c r="W4" s="61" t="s">
+      <c r="W4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="39">
+      <c r="X4" s="30">
         <v>0.97940000000000005</v>
       </c>
-      <c r="Y4" s="62">
+      <c r="Y4" s="42">
         <v>0.84899999999999998</v>
       </c>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="62"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="42"/>
     </row>
     <row r="5" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="54"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="1">
         <v>9</v>
       </c>
@@ -4372,14 +4543,14 @@
         <v>2566</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="31"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="1">
         <v>11</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="34">
         <v>2441</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="1">
         <v>9</v>
       </c>
@@ -4387,14 +4558,14 @@
         <v>2599</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="31"/>
+      <c r="M5" s="47"/>
       <c r="N5" s="1">
         <v>11</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="34">
         <v>2460</v>
       </c>
-      <c r="Q5" s="36"/>
+      <c r="Q5" s="55"/>
       <c r="R5" s="25" t="s">
         <v>7</v>
       </c>
@@ -4410,21 +4581,21 @@
         <f>COUNT($G$19:$G$34)</f>
         <v>16</v>
       </c>
-      <c r="W5" s="61" t="s">
+      <c r="W5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="30">
         <v>0.97860000000000003</v>
       </c>
-      <c r="Y5" s="62">
+      <c r="Y5" s="42">
         <v>0.82899999999999996</v>
       </c>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="62"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="42"/>
     </row>
     <row r="6" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="54"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="1">
         <v>13</v>
       </c>
@@ -4432,14 +4603,14 @@
         <v>2586</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="31"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="1">
         <v>15</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="34">
         <v>2438</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="1">
         <v>13</v>
       </c>
@@ -4447,14 +4618,14 @@
         <v>2583</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="31"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="1">
         <v>15</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="34">
         <v>2415</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="53">
         <v>2</v>
       </c>
       <c r="R6" s="21" t="s">
@@ -4472,21 +4643,21 @@
         <f>COUNT($K$4:$K$13)</f>
         <v>10</v>
       </c>
-      <c r="W6" s="63" t="s">
+      <c r="W6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X6" s="64">
+      <c r="X6" s="44">
         <v>0.96430000000000005</v>
       </c>
-      <c r="Y6" s="65">
+      <c r="Y6" s="45">
         <v>0.45900000000000002</v>
       </c>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="65"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="45"/>
     </row>
     <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="1">
         <v>17</v>
       </c>
@@ -4494,14 +4665,14 @@
         <v>2613</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="31"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="1">
         <v>19</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="34">
         <v>2425</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="1">
         <v>17</v>
       </c>
@@ -4509,14 +4680,14 @@
         <v>2604</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="31"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="1">
         <v>19</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="34">
         <v>2419</v>
       </c>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="54"/>
       <c r="R7" s="10" t="s">
         <v>5</v>
       </c>
@@ -4534,7 +4705,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="1">
         <v>21</v>
       </c>
@@ -4542,14 +4713,14 @@
         <v>2621</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="31"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="1">
         <v>23</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="34">
         <v>2429</v>
       </c>
-      <c r="I8" s="35"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="1">
         <v>21</v>
       </c>
@@ -4557,14 +4728,14 @@
         <v>2566</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="31"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="1">
         <v>23</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="34">
         <v>2446</v>
       </c>
-      <c r="Q8" s="35"/>
+      <c r="Q8" s="54"/>
       <c r="R8" s="10" t="s">
         <v>6</v>
       </c>
@@ -4582,7 +4753,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="54"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="1">
         <v>25</v>
       </c>
@@ -4590,14 +4761,14 @@
         <v>2608</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="1">
         <v>27</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="34">
         <v>2410</v>
       </c>
-      <c r="I9" s="35"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="1">
         <v>25</v>
       </c>
@@ -4605,14 +4776,14 @@
         <v>2582</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="31"/>
+      <c r="M9" s="47"/>
       <c r="N9" s="1">
         <v>27</v>
       </c>
-      <c r="O9" s="47">
+      <c r="O9" s="34">
         <v>2438</v>
       </c>
-      <c r="Q9" s="36"/>
+      <c r="Q9" s="55"/>
       <c r="R9" s="25" t="s">
         <v>7</v>
       </c>
@@ -4630,7 +4801,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="54"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="1">
         <v>29</v>
       </c>
@@ -4638,14 +4809,14 @@
         <v>2631</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="31"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="1">
         <v>31</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="34">
         <v>2462</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="1">
         <v>29</v>
       </c>
@@ -4653,17 +4824,17 @@
         <v>2558</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="31"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="1">
         <v>31</v>
       </c>
-      <c r="O10" s="47">
+      <c r="O10" s="34">
         <v>2394</v>
       </c>
-      <c r="Q10" s="37" t="s">
+      <c r="Q10" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="38"/>
+      <c r="R10" s="57"/>
       <c r="S10" s="26">
         <f>AVERAGE(S2:S9)</f>
         <v>2536.9930397727271</v>
@@ -4678,7 +4849,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="1">
         <v>33</v>
       </c>
@@ -4686,14 +4857,14 @@
         <v>2564</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="1">
         <v>35</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="34">
         <v>2443</v>
       </c>
-      <c r="I11" s="35"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="1">
         <v>33</v>
       </c>
@@ -4701,16 +4872,16 @@
         <v>2561</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="31"/>
+      <c r="M11" s="47"/>
       <c r="N11" s="1">
         <v>35</v>
       </c>
-      <c r="O11" s="47">
+      <c r="O11" s="34">
         <v>2423</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="1">
         <v>37</v>
       </c>
@@ -4718,14 +4889,14 @@
         <v>2571</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="1">
         <v>39</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="34">
         <v>2450</v>
       </c>
-      <c r="I12" s="35"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="1">
         <v>37</v>
       </c>
@@ -4733,16 +4904,16 @@
         <v>2620</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="31"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="1">
         <v>39</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="34">
         <v>2424</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="1">
         <v>41</v>
       </c>
@@ -4750,14 +4921,14 @@
         <v>2586</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="1">
         <v>43</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="34">
         <v>2406</v>
       </c>
-      <c r="I13" s="48"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="1">
         <v>41</v>
       </c>
@@ -4765,16 +4936,16 @@
         <v>2599</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="32"/>
+      <c r="M13" s="48"/>
       <c r="N13" s="1">
         <v>43</v>
       </c>
-      <c r="O13" s="47">
+      <c r="O13" s="34">
         <v>2421</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="1">
         <v>45</v>
       </c>
@@ -4782,14 +4953,14 @@
         <v>2601</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="1">
         <v>47</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="34">
         <v>2472</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="62" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="1">
@@ -4799,18 +4970,18 @@
         <v>2368</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="46" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="1">
         <v>4</v>
       </c>
-      <c r="O14" s="47">
+      <c r="O14" s="34">
         <v>2753</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="1">
         <v>49</v>
       </c>
@@ -4818,14 +4989,14 @@
         <v>2563</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="1">
         <v>51</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="34">
         <v>2424</v>
       </c>
-      <c r="I15" s="35"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="1">
         <v>6</v>
       </c>
@@ -4833,16 +5004,16 @@
         <v>2382</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="31"/>
+      <c r="M15" s="47"/>
       <c r="N15" s="1">
         <v>8</v>
       </c>
-      <c r="O15" s="47">
+      <c r="O15" s="34">
         <v>2688</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="1">
         <v>53</v>
       </c>
@@ -4850,14 +5021,14 @@
         <v>2613</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="31"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="1">
         <v>55</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="34">
         <v>2469</v>
       </c>
-      <c r="I16" s="35"/>
+      <c r="I16" s="54"/>
       <c r="J16" s="1">
         <v>10</v>
       </c>
@@ -4865,16 +5036,16 @@
         <v>2389</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="31"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="1">
         <v>12</v>
       </c>
-      <c r="O16" s="47">
+      <c r="O16" s="34">
         <v>2773</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="1">
         <v>57</v>
       </c>
@@ -4882,14 +5053,14 @@
         <v>2624</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="31"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="1">
         <v>59</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="34">
         <v>2413</v>
       </c>
-      <c r="I17" s="35"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="1">
         <v>14</v>
       </c>
@@ -4897,16 +5068,16 @@
         <v>2411</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="31"/>
+      <c r="M17" s="47"/>
       <c r="N17" s="1">
         <v>16</v>
       </c>
-      <c r="O17" s="47">
+      <c r="O17" s="34">
         <v>2741</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="1">
         <v>61</v>
       </c>
@@ -4914,14 +5085,14 @@
         <v>2549</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="1">
         <v>63</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="34">
         <v>2440</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="1">
         <v>18</v>
       </c>
@@ -4929,16 +5100,16 @@
         <v>2406</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="31"/>
+      <c r="M18" s="47"/>
       <c r="N18" s="1">
         <v>20</v>
       </c>
-      <c r="O18" s="47">
+      <c r="O18" s="34">
         <v>2692</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1">
@@ -4948,16 +5119,16 @@
         <v>2438</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="46" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="34">
         <v>2779</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="1">
         <v>22</v>
       </c>
@@ -4965,16 +5136,16 @@
         <v>2412</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="31"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="1">
         <v>24</v>
       </c>
-      <c r="O19" s="47">
+      <c r="O19" s="34">
         <v>2740</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -4982,14 +5153,14 @@
         <v>2411</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="1">
         <v>8</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="34">
         <v>2681</v>
       </c>
-      <c r="I20" s="35"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="1">
         <v>26</v>
       </c>
@@ -4997,16 +5168,16 @@
         <v>2386</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="31"/>
+      <c r="M20" s="47"/>
       <c r="N20" s="1">
         <v>28</v>
       </c>
-      <c r="O20" s="47">
+      <c r="O20" s="34">
         <v>2737</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -5014,14 +5185,14 @@
         <v>2384</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="1">
         <v>12</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="34">
         <v>2667</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="1">
         <v>30</v>
       </c>
@@ -5029,16 +5200,16 @@
         <v>2390</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="31"/>
+      <c r="M21" s="47"/>
       <c r="N21" s="1">
         <v>32</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O21" s="34">
         <v>2676</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="1">
         <v>14</v>
       </c>
@@ -5046,14 +5217,14 @@
         <v>2422</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="1">
         <v>16</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="34">
         <v>2785</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="1">
         <v>34</v>
       </c>
@@ -5061,16 +5232,16 @@
         <v>2429</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="31"/>
+      <c r="M22" s="47"/>
       <c r="N22" s="1">
         <v>36</v>
       </c>
-      <c r="O22" s="47">
+      <c r="O22" s="34">
         <v>2725</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -5078,14 +5249,14 @@
         <v>2398</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="34">
         <v>2668</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="1">
         <v>38</v>
       </c>
@@ -5093,16 +5264,16 @@
         <v>2399</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="31"/>
+      <c r="M23" s="47"/>
       <c r="N23" s="1">
         <v>40</v>
       </c>
-      <c r="O23" s="47">
+      <c r="O23" s="34">
         <v>2719</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="54"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -5110,31 +5281,31 @@
         <v>2421</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="1">
         <v>24</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="34">
         <v>2711</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="49">
+      <c r="I24" s="55"/>
+      <c r="J24" s="35">
         <v>42</v>
       </c>
-      <c r="K24" s="50">
+      <c r="K24" s="36">
         <v>2392</v>
       </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="49">
+      <c r="L24" s="37"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="35">
         <v>44</v>
       </c>
-      <c r="O24" s="53">
+      <c r="O24" s="38">
         <v>2672</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="1">
         <v>26</v>
       </c>
@@ -5142,16 +5313,16 @@
         <v>2414</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="31"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="1">
         <v>28</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="34">
         <v>2794</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="1">
         <v>30</v>
       </c>
@@ -5159,16 +5330,16 @@
         <v>2425</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="1">
         <v>32</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="34">
         <v>2712</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="1">
         <v>34</v>
       </c>
@@ -5176,16 +5347,16 @@
         <v>2420</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="1">
         <v>36</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="34">
         <v>2741</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="1">
         <v>38</v>
       </c>
@@ -5193,16 +5364,16 @@
         <v>2414</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="1">
         <v>40</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="34">
         <v>2804</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="1">
         <v>42</v>
       </c>
@@ -5210,16 +5381,16 @@
         <v>2389</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="1">
         <v>44</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="34">
         <v>2727</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="1">
         <v>46</v>
       </c>
@@ -5227,16 +5398,16 @@
         <v>2397</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="1">
         <v>48</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="34">
         <v>2722</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="1">
         <v>50</v>
       </c>
@@ -5244,16 +5415,16 @@
         <v>2409</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="1">
         <v>52</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="34">
         <v>2710</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="1">
         <v>54</v>
       </c>
@@ -5261,16 +5432,16 @@
         <v>2416</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="1">
         <v>56</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="34">
         <v>2739</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="1">
         <v>58</v>
       </c>
@@ -5278,38 +5449,33 @@
         <v>2433</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="1">
         <v>60</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="34">
         <v>2704</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="55"/>
-      <c r="B34" s="49">
+      <c r="A34" s="65"/>
+      <c r="B34" s="35">
         <v>62</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="36">
         <v>2409</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="49">
+      <c r="D34" s="37"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="35">
         <v>64</v>
       </c>
-      <c r="G34" s="53">
+      <c r="G34" s="38">
         <v>2761</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="A3:A18"/>
@@ -5320,9 +5486,245 @@
     <mergeCell ref="M14:M24"/>
     <mergeCell ref="A19:A34"/>
     <mergeCell ref="E19:E34"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="Q10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A854019-E8E4-4713-BFF6-E1139EDB7524}">
+  <dimension ref="B2:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="14" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="67">
+        <v>0.95996780000000004</v>
+      </c>
+      <c r="D4" s="67">
+        <v>0.39090009999999997</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="74">
+        <v>1</v>
+      </c>
+      <c r="J4" s="75">
+        <v>3381</v>
+      </c>
+      <c r="K4" s="75">
+        <v>3381</v>
+      </c>
+      <c r="L4" s="76">
+        <v>4.6130000000000004</v>
+      </c>
+      <c r="M4" s="77">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="N4" s="78">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="67">
+        <v>0.97943199999999997</v>
+      </c>
+      <c r="D5" s="67">
+        <v>0.84929279999999996</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="79">
+        <v>3</v>
+      </c>
+      <c r="J5" s="80">
+        <v>1781080</v>
+      </c>
+      <c r="K5" s="80">
+        <v>593693</v>
+      </c>
+      <c r="L5" s="81">
+        <v>809.94600000000003</v>
+      </c>
+      <c r="M5" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="67">
+        <v>0.97861220000000004</v>
+      </c>
+      <c r="D6" s="67">
+        <v>0.82973549999999996</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="83">
+        <v>1</v>
+      </c>
+      <c r="J6" s="84">
+        <v>112</v>
+      </c>
+      <c r="K6" s="84">
+        <v>112</v>
+      </c>
+      <c r="L6" s="85">
+        <v>0.153</v>
+      </c>
+      <c r="M6" s="86">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="N6" s="89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="67">
+        <v>0.96425780000000005</v>
+      </c>
+      <c r="D7" s="67">
+        <v>0.45949079999999998</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="83">
+        <v>3</v>
+      </c>
+      <c r="J7" s="84">
+        <v>825</v>
+      </c>
+      <c r="K7" s="84">
+        <v>275</v>
+      </c>
+      <c r="L7" s="85">
+        <v>0.375</v>
+      </c>
+      <c r="M7" s="86">
+        <v>0.7712</v>
+      </c>
+      <c r="N7" s="89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H8" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="83">
+        <v>98</v>
+      </c>
+      <c r="J8" s="84">
+        <v>71834</v>
+      </c>
+      <c r="K8" s="84">
+        <v>733</v>
+      </c>
+      <c r="L8" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/velocity.xlsx
+++ b/velocity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TAMU\Spring_2023\final_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7D8A68-EC00-4F47-B154-FB5DD08D77EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92302D3C-5E6E-40AF-AC37-4D33770A14BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="velocity" sheetId="1" r:id="rId1"/>
@@ -113,45 +113,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Shapiro–Wilk Test</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(H˳: Ammo Velocities are not normal)</t>
-    </r>
-  </si>
-  <si>
     <t>Df</t>
   </si>
   <si>
@@ -190,6 +151,45 @@
   <si>
     <t>Not Sig</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shapiro–Wilk Test</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(H˳: Ammo Velocities are normal)</t>
+    </r>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +198,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1153,6 +1153,45 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="24" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="24" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,30 +1203,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,7 +1219,13 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1213,52 +1234,31 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="24" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="24" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3274,24 +3274,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="I1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3335,7 +3335,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="70" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -3345,7 +3345,7 @@
         <v>2565</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="67" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1">
@@ -3354,7 +3354,7 @@
       <c r="G3" s="3">
         <v>2441</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="67" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1">
@@ -3364,7 +3364,7 @@
         <v>2393</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="67" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="1">
@@ -3375,7 +3375,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -3383,14 +3383,14 @@
         <v>2532</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="47"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="1">
         <v>7</v>
       </c>
       <c r="G4" s="3">
         <v>2436</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="68"/>
       <c r="J4" s="1">
         <v>5</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>2550</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="47"/>
+      <c r="M4" s="68"/>
       <c r="N4" s="1">
         <v>7</v>
       </c>
@@ -3407,7 +3407,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="1">
         <v>9</v>
       </c>
@@ -3415,14 +3415,14 @@
         <v>2566</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="47"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="1">
         <v>11</v>
       </c>
       <c r="G5" s="3">
         <v>2441</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="1">
         <v>9</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>2599</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="47"/>
+      <c r="M5" s="68"/>
       <c r="N5" s="1">
         <v>11</v>
       </c>
@@ -3439,7 +3439,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="1">
         <v>13</v>
       </c>
@@ -3447,14 +3447,14 @@
         <v>2586</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="47"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="1">
         <v>15</v>
       </c>
       <c r="G6" s="3">
         <v>2438</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="1">
         <v>13</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>2583</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="47"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="1">
         <v>15</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="1">
         <v>17</v>
       </c>
@@ -3479,14 +3479,14 @@
         <v>2613</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="47"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="1">
         <v>19</v>
       </c>
       <c r="G7" s="3">
         <v>2425</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="1">
         <v>17</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>2604</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="47"/>
+      <c r="M7" s="68"/>
       <c r="N7" s="1">
         <v>19</v>
       </c>
@@ -3503,7 +3503,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="1">
         <v>21</v>
       </c>
@@ -3511,14 +3511,14 @@
         <v>2621</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="47"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="1">
         <v>23</v>
       </c>
       <c r="G8" s="3">
         <v>2429</v>
       </c>
-      <c r="I8" s="47"/>
+      <c r="I8" s="68"/>
       <c r="J8" s="1">
         <v>21</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>2566</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="47"/>
+      <c r="M8" s="68"/>
       <c r="N8" s="1">
         <v>23</v>
       </c>
@@ -3535,7 +3535,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="1">
         <v>25</v>
       </c>
@@ -3543,14 +3543,14 @@
         <v>2608</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="47"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="1">
         <v>27</v>
       </c>
       <c r="G9" s="3">
         <v>2410</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="68"/>
       <c r="J9" s="1">
         <v>25</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>2582</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="47"/>
+      <c r="M9" s="68"/>
       <c r="N9" s="1">
         <v>27</v>
       </c>
@@ -3567,7 +3567,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="1">
         <v>29</v>
       </c>
@@ -3575,14 +3575,14 @@
         <v>2631</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="47"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="1">
         <v>31</v>
       </c>
       <c r="G10" s="3">
         <v>2462</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="68"/>
       <c r="J10" s="1">
         <v>29</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>2558</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="47"/>
+      <c r="M10" s="68"/>
       <c r="N10" s="1">
         <v>31</v>
       </c>
@@ -3599,7 +3599,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="1">
         <v>33</v>
       </c>
@@ -3607,14 +3607,14 @@
         <v>2564</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="47"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="1">
         <v>35</v>
       </c>
       <c r="G11" s="3">
         <v>2443</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="68"/>
       <c r="J11" s="1">
         <v>33</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>2561</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="47"/>
+      <c r="M11" s="68"/>
       <c r="N11" s="1">
         <v>35</v>
       </c>
@@ -3631,7 +3631,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="1">
         <v>37</v>
       </c>
@@ -3639,14 +3639,14 @@
         <v>2571</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="47"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="1">
         <v>39</v>
       </c>
       <c r="G12" s="3">
         <v>2450</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="68"/>
       <c r="J12" s="1">
         <v>37</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>2620</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="47"/>
+      <c r="M12" s="68"/>
       <c r="N12" s="1">
         <v>39</v>
       </c>
@@ -3663,7 +3663,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="1">
         <v>41</v>
       </c>
@@ -3671,14 +3671,14 @@
         <v>2586</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="47"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="1">
         <v>43</v>
       </c>
       <c r="G13" s="3">
         <v>2406</v>
       </c>
-      <c r="I13" s="48"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="1">
         <v>41</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>2599</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="48"/>
+      <c r="M13" s="69"/>
       <c r="N13" s="1">
         <v>43</v>
       </c>
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="1">
         <v>45</v>
       </c>
@@ -3703,14 +3703,14 @@
         <v>2601</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="47"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="1">
         <v>47</v>
       </c>
       <c r="G14" s="3">
         <v>2472</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="67" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="1">
@@ -3720,7 +3720,7 @@
         <v>2368</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="46" t="s">
+      <c r="M14" s="67" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="1">
@@ -3731,7 +3731,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="1">
         <v>49</v>
       </c>
@@ -3739,14 +3739,14 @@
         <v>2563</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="47"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="1">
         <v>51</v>
       </c>
       <c r="G15" s="3">
         <v>2424</v>
       </c>
-      <c r="I15" s="47"/>
+      <c r="I15" s="68"/>
       <c r="J15" s="1">
         <v>6</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>2382</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="47"/>
+      <c r="M15" s="68"/>
       <c r="N15" s="1">
         <v>8</v>
       </c>
@@ -3763,7 +3763,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="1">
         <v>53</v>
       </c>
@@ -3771,14 +3771,14 @@
         <v>2613</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="47"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="1">
         <v>55</v>
       </c>
       <c r="G16" s="3">
         <v>2469</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="68"/>
       <c r="J16" s="1">
         <v>10</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>2389</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="47"/>
+      <c r="M16" s="68"/>
       <c r="N16" s="1">
         <v>12</v>
       </c>
@@ -3795,7 +3795,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="1">
         <v>57</v>
       </c>
@@ -3803,14 +3803,14 @@
         <v>2624</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="47"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="1">
         <v>59</v>
       </c>
       <c r="G17" s="3">
         <v>2413</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="68"/>
       <c r="J17" s="1">
         <v>14</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>2411</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="47"/>
+      <c r="M17" s="68"/>
       <c r="N17" s="1">
         <v>16</v>
       </c>
@@ -3827,7 +3827,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="1">
         <v>61</v>
       </c>
@@ -3835,14 +3835,14 @@
         <v>2549</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="48"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="1">
         <v>63</v>
       </c>
       <c r="G18" s="3">
         <v>2440</v>
       </c>
-      <c r="I18" s="47"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="1">
         <v>18</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>2406</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="47"/>
+      <c r="M18" s="68"/>
       <c r="N18" s="1">
         <v>20</v>
       </c>
@@ -3859,7 +3859,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1">
@@ -3869,7 +3869,7 @@
         <v>2438</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="67" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1">
@@ -3878,7 +3878,7 @@
       <c r="G19" s="3">
         <v>2779</v>
       </c>
-      <c r="I19" s="47"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="1">
         <v>22</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>2412</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="68"/>
       <c r="N19" s="1">
         <v>24</v>
       </c>
@@ -3895,7 +3895,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -3903,14 +3903,14 @@
         <v>2411</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="1">
         <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>2681</v>
       </c>
-      <c r="I20" s="47"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="1">
         <v>26</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>2386</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="47"/>
+      <c r="M20" s="68"/>
       <c r="N20" s="1">
         <v>28</v>
       </c>
@@ -3927,7 +3927,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -3935,14 +3935,14 @@
         <v>2384</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="47"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="1">
         <v>12</v>
       </c>
       <c r="G21" s="3">
         <v>2667</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="68"/>
       <c r="J21" s="1">
         <v>30</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>2390</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="47"/>
+      <c r="M21" s="68"/>
       <c r="N21" s="1">
         <v>32</v>
       </c>
@@ -3959,7 +3959,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="1">
         <v>14</v>
       </c>
@@ -3967,14 +3967,14 @@
         <v>2422</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="47"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="1">
         <v>16</v>
       </c>
       <c r="G22" s="3">
         <v>2785</v>
       </c>
-      <c r="I22" s="47"/>
+      <c r="I22" s="68"/>
       <c r="J22" s="1">
         <v>34</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>2429</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="47"/>
+      <c r="M22" s="68"/>
       <c r="N22" s="1">
         <v>36</v>
       </c>
@@ -3991,7 +3991,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -3999,14 +3999,14 @@
         <v>2398</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="47"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="3">
         <v>2668</v>
       </c>
-      <c r="I23" s="47"/>
+      <c r="I23" s="68"/>
       <c r="J23" s="1">
         <v>38</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>2399</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="47"/>
+      <c r="M23" s="68"/>
       <c r="N23" s="1">
         <v>40</v>
       </c>
@@ -4023,7 +4023,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -4031,14 +4031,14 @@
         <v>2421</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="47"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="1">
         <v>24</v>
       </c>
       <c r="G24" s="3">
         <v>2711</v>
       </c>
-      <c r="I24" s="48"/>
+      <c r="I24" s="69"/>
       <c r="J24" s="1">
         <v>42</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>2392</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="48"/>
+      <c r="M24" s="69"/>
       <c r="N24" s="1">
         <v>44</v>
       </c>
@@ -4055,7 +4055,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="1">
         <v>26</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>2414</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="47"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="1">
         <v>28</v>
       </c>
@@ -4072,7 +4072,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="1">
         <v>30</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>2425</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="1">
         <v>32</v>
       </c>
@@ -4089,7 +4089,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="1">
         <v>34</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>2420</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="47"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="1">
         <v>36</v>
       </c>
@@ -4106,7 +4106,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="1">
         <v>38</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>2414</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="47"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="1">
         <v>40</v>
       </c>
@@ -4123,7 +4123,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="1">
         <v>42</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>2389</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="47"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="1">
         <v>44</v>
       </c>
@@ -4140,7 +4140,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="1">
         <v>46</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>2397</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="47"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="1">
         <v>48</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="1">
         <v>50</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>2409</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="47"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="1">
         <v>52</v>
       </c>
@@ -4174,7 +4174,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="1">
         <v>54</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>2416</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="47"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="1">
         <v>56</v>
       </c>
@@ -4191,7 +4191,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="1">
         <v>58</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>2433</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="47"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="1">
         <v>60</v>
       </c>
@@ -4208,7 +4208,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="1">
         <v>62</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>2409</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="48"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="1">
         <v>64</v>
       </c>
@@ -4291,24 +4291,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
-      <c r="I1" s="58" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="I1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="73"/>
       <c r="Q1" s="17" t="s">
         <v>13</v>
       </c>
@@ -4324,16 +4324,16 @@
       <c r="U1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="50" t="s">
+      <c r="W1" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="52"/>
-      <c r="AA1" s="50" t="s">
+      <c r="X1" s="82"/>
+      <c r="Y1" s="83"/>
+      <c r="AA1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="52"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="83"/>
     </row>
     <row r="2" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
@@ -4375,7 +4375,7 @@
       <c r="O2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="53">
+      <c r="Q2" s="84">
         <v>1</v>
       </c>
       <c r="R2" s="21" t="s">
@@ -4407,7 +4407,7 @@
       <c r="AC2" s="40"/>
     </row>
     <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="74" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -4417,7 +4417,7 @@
         <v>2565</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="67" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1">
@@ -4426,7 +4426,7 @@
       <c r="G3" s="34">
         <v>2441</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="75" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1">
@@ -4436,7 +4436,7 @@
         <v>2393</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="67" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="1">
@@ -4445,7 +4445,7 @@
       <c r="O3" s="34">
         <v>2438</v>
       </c>
-      <c r="Q3" s="54"/>
+      <c r="Q3" s="76"/>
       <c r="R3" s="10" t="s">
         <v>5</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="AC3" s="42"/>
     </row>
     <row r="4" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="61"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -4483,14 +4483,14 @@
         <v>2532</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="47"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="1">
         <v>7</v>
       </c>
       <c r="G4" s="34">
         <v>2436</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="1">
         <v>5</v>
       </c>
@@ -4498,14 +4498,14 @@
         <v>2550</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="47"/>
+      <c r="M4" s="68"/>
       <c r="N4" s="1">
         <v>7</v>
       </c>
       <c r="O4" s="34">
         <v>2439</v>
       </c>
-      <c r="Q4" s="54"/>
+      <c r="Q4" s="76"/>
       <c r="R4" s="10" t="s">
         <v>6</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="AC4" s="42"/>
     </row>
     <row r="5" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="61"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="1">
         <v>9</v>
       </c>
@@ -4543,14 +4543,14 @@
         <v>2566</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="47"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="1">
         <v>11</v>
       </c>
       <c r="G5" s="34">
         <v>2441</v>
       </c>
-      <c r="I5" s="54"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="1">
         <v>9</v>
       </c>
@@ -4558,14 +4558,14 @@
         <v>2599</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="47"/>
+      <c r="M5" s="68"/>
       <c r="N5" s="1">
         <v>11</v>
       </c>
       <c r="O5" s="34">
         <v>2460</v>
       </c>
-      <c r="Q5" s="55"/>
+      <c r="Q5" s="78"/>
       <c r="R5" s="25" t="s">
         <v>7</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="AC5" s="42"/>
     </row>
     <row r="6" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="61"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="1">
         <v>13</v>
       </c>
@@ -4603,14 +4603,14 @@
         <v>2586</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="47"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="1">
         <v>15</v>
       </c>
       <c r="G6" s="34">
         <v>2438</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="1">
         <v>13</v>
       </c>
@@ -4618,14 +4618,14 @@
         <v>2583</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="47"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="1">
         <v>15</v>
       </c>
       <c r="O6" s="34">
         <v>2415</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="84">
         <v>2</v>
       </c>
       <c r="R6" s="21" t="s">
@@ -4657,7 +4657,7 @@
       <c r="AC6" s="45"/>
     </row>
     <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="1">
         <v>17</v>
       </c>
@@ -4665,14 +4665,14 @@
         <v>2613</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="47"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="1">
         <v>19</v>
       </c>
       <c r="G7" s="34">
         <v>2425</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="1">
         <v>17</v>
       </c>
@@ -4680,14 +4680,14 @@
         <v>2604</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="47"/>
+      <c r="M7" s="68"/>
       <c r="N7" s="1">
         <v>19</v>
       </c>
       <c r="O7" s="34">
         <v>2419</v>
       </c>
-      <c r="Q7" s="54"/>
+      <c r="Q7" s="76"/>
       <c r="R7" s="10" t="s">
         <v>5</v>
       </c>
@@ -4705,7 +4705,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="1">
         <v>21</v>
       </c>
@@ -4713,14 +4713,14 @@
         <v>2621</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="47"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="1">
         <v>23</v>
       </c>
       <c r="G8" s="34">
         <v>2429</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="76"/>
       <c r="J8" s="1">
         <v>21</v>
       </c>
@@ -4728,14 +4728,14 @@
         <v>2566</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="47"/>
+      <c r="M8" s="68"/>
       <c r="N8" s="1">
         <v>23</v>
       </c>
       <c r="O8" s="34">
         <v>2446</v>
       </c>
-      <c r="Q8" s="54"/>
+      <c r="Q8" s="76"/>
       <c r="R8" s="10" t="s">
         <v>6</v>
       </c>
@@ -4753,7 +4753,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="61"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="1">
         <v>25</v>
       </c>
@@ -4761,14 +4761,14 @@
         <v>2608</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="47"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="1">
         <v>27</v>
       </c>
       <c r="G9" s="34">
         <v>2410</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="76"/>
       <c r="J9" s="1">
         <v>25</v>
       </c>
@@ -4776,14 +4776,14 @@
         <v>2582</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="47"/>
+      <c r="M9" s="68"/>
       <c r="N9" s="1">
         <v>27</v>
       </c>
       <c r="O9" s="34">
         <v>2438</v>
       </c>
-      <c r="Q9" s="55"/>
+      <c r="Q9" s="78"/>
       <c r="R9" s="25" t="s">
         <v>7</v>
       </c>
@@ -4801,7 +4801,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="1">
         <v>29</v>
       </c>
@@ -4809,14 +4809,14 @@
         <v>2631</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="47"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="1">
         <v>31</v>
       </c>
       <c r="G10" s="34">
         <v>2462</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="1">
         <v>29</v>
       </c>
@@ -4824,17 +4824,17 @@
         <v>2558</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="47"/>
+      <c r="M10" s="68"/>
       <c r="N10" s="1">
         <v>31</v>
       </c>
       <c r="O10" s="34">
         <v>2394</v>
       </c>
-      <c r="Q10" s="56" t="s">
+      <c r="Q10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="57"/>
+      <c r="R10" s="86"/>
       <c r="S10" s="26">
         <f>AVERAGE(S2:S9)</f>
         <v>2536.9930397727271</v>
@@ -4849,7 +4849,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="1">
         <v>33</v>
       </c>
@@ -4857,14 +4857,14 @@
         <v>2564</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="47"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="1">
         <v>35</v>
       </c>
       <c r="G11" s="34">
         <v>2443</v>
       </c>
-      <c r="I11" s="54"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="1">
         <v>33</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>2561</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="47"/>
+      <c r="M11" s="68"/>
       <c r="N11" s="1">
         <v>35</v>
       </c>
@@ -4881,7 +4881,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="1">
         <v>37</v>
       </c>
@@ -4889,14 +4889,14 @@
         <v>2571</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="47"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="1">
         <v>39</v>
       </c>
       <c r="G12" s="34">
         <v>2450</v>
       </c>
-      <c r="I12" s="54"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="1">
         <v>37</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>2620</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="47"/>
+      <c r="M12" s="68"/>
       <c r="N12" s="1">
         <v>39</v>
       </c>
@@ -4913,7 +4913,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="1">
         <v>41</v>
       </c>
@@ -4921,14 +4921,14 @@
         <v>2586</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="47"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="1">
         <v>43</v>
       </c>
       <c r="G13" s="34">
         <v>2406</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="1">
         <v>41</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>2599</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="48"/>
+      <c r="M13" s="69"/>
       <c r="N13" s="1">
         <v>43</v>
       </c>
@@ -4945,7 +4945,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="1">
         <v>45</v>
       </c>
@@ -4953,14 +4953,14 @@
         <v>2601</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="47"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="1">
         <v>47</v>
       </c>
       <c r="G14" s="34">
         <v>2472</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="75" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="1">
@@ -4970,7 +4970,7 @@
         <v>2368</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="46" t="s">
+      <c r="M14" s="67" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="1">
@@ -4981,7 +4981,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="1">
         <v>49</v>
       </c>
@@ -4989,14 +4989,14 @@
         <v>2563</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="47"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="1">
         <v>51</v>
       </c>
       <c r="G15" s="34">
         <v>2424</v>
       </c>
-      <c r="I15" s="54"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="1">
         <v>6</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>2382</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="47"/>
+      <c r="M15" s="68"/>
       <c r="N15" s="1">
         <v>8</v>
       </c>
@@ -5013,7 +5013,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="1">
         <v>53</v>
       </c>
@@ -5021,14 +5021,14 @@
         <v>2613</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="47"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="1">
         <v>55</v>
       </c>
       <c r="G16" s="34">
         <v>2469</v>
       </c>
-      <c r="I16" s="54"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="1">
         <v>10</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>2389</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="47"/>
+      <c r="M16" s="68"/>
       <c r="N16" s="1">
         <v>12</v>
       </c>
@@ -5045,7 +5045,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="1">
         <v>57</v>
       </c>
@@ -5053,14 +5053,14 @@
         <v>2624</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="47"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="1">
         <v>59</v>
       </c>
       <c r="G17" s="34">
         <v>2413</v>
       </c>
-      <c r="I17" s="54"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="1">
         <v>14</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>2411</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="47"/>
+      <c r="M17" s="68"/>
       <c r="N17" s="1">
         <v>16</v>
       </c>
@@ -5077,7 +5077,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="1">
         <v>61</v>
       </c>
@@ -5085,14 +5085,14 @@
         <v>2549</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="48"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="1">
         <v>63</v>
       </c>
       <c r="G18" s="34">
         <v>2440</v>
       </c>
-      <c r="I18" s="54"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="1">
         <v>18</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>2406</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="47"/>
+      <c r="M18" s="68"/>
       <c r="N18" s="1">
         <v>20</v>
       </c>
@@ -5109,7 +5109,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1">
@@ -5119,7 +5119,7 @@
         <v>2438</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="67" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1">
@@ -5128,7 +5128,7 @@
       <c r="G19" s="34">
         <v>2779</v>
       </c>
-      <c r="I19" s="54"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="1">
         <v>22</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>2412</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="47"/>
+      <c r="M19" s="68"/>
       <c r="N19" s="1">
         <v>24</v>
       </c>
@@ -5145,7 +5145,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -5153,14 +5153,14 @@
         <v>2411</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="1">
         <v>8</v>
       </c>
       <c r="G20" s="34">
         <v>2681</v>
       </c>
-      <c r="I20" s="54"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="1">
         <v>26</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>2386</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="47"/>
+      <c r="M20" s="68"/>
       <c r="N20" s="1">
         <v>28</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -5185,14 +5185,14 @@
         <v>2384</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="47"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="1">
         <v>12</v>
       </c>
       <c r="G21" s="34">
         <v>2667</v>
       </c>
-      <c r="I21" s="54"/>
+      <c r="I21" s="76"/>
       <c r="J21" s="1">
         <v>30</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>2390</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="47"/>
+      <c r="M21" s="68"/>
       <c r="N21" s="1">
         <v>32</v>
       </c>
@@ -5209,7 +5209,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="1">
         <v>14</v>
       </c>
@@ -5217,14 +5217,14 @@
         <v>2422</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="47"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="1">
         <v>16</v>
       </c>
       <c r="G22" s="34">
         <v>2785</v>
       </c>
-      <c r="I22" s="54"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="1">
         <v>34</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>2429</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="47"/>
+      <c r="M22" s="68"/>
       <c r="N22" s="1">
         <v>36</v>
       </c>
@@ -5241,7 +5241,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -5249,14 +5249,14 @@
         <v>2398</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="47"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="34">
         <v>2668</v>
       </c>
-      <c r="I23" s="54"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="1">
         <v>38</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>2399</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="47"/>
+      <c r="M23" s="68"/>
       <c r="N23" s="1">
         <v>40</v>
       </c>
@@ -5273,7 +5273,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="61"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -5281,14 +5281,14 @@
         <v>2421</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="47"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="1">
         <v>24</v>
       </c>
       <c r="G24" s="34">
         <v>2711</v>
       </c>
-      <c r="I24" s="55"/>
+      <c r="I24" s="78"/>
       <c r="J24" s="35">
         <v>42</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>2392</v>
       </c>
       <c r="L24" s="37"/>
-      <c r="M24" s="64"/>
+      <c r="M24" s="79"/>
       <c r="N24" s="35">
         <v>44</v>
       </c>
@@ -5305,7 +5305,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="1">
         <v>26</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>2414</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="47"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="1">
         <v>28</v>
       </c>
@@ -5322,7 +5322,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="1">
         <v>30</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>2425</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="1">
         <v>32</v>
       </c>
@@ -5339,7 +5339,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="1">
         <v>34</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>2420</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="47"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="1">
         <v>36</v>
       </c>
@@ -5356,7 +5356,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="1">
         <v>38</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>2414</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="47"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="1">
         <v>40</v>
       </c>
@@ -5373,7 +5373,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="1">
         <v>42</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>2389</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="47"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="1">
         <v>44</v>
       </c>
@@ -5390,7 +5390,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="1">
         <v>46</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>2397</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="47"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="1">
         <v>48</v>
       </c>
@@ -5407,7 +5407,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="1">
         <v>50</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>2409</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="47"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="1">
         <v>52</v>
       </c>
@@ -5424,7 +5424,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="1">
         <v>54</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>2416</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="47"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="1">
         <v>56</v>
       </c>
@@ -5441,7 +5441,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="1">
         <v>58</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>2433</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="47"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="1">
         <v>60</v>
       </c>
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="65"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="35">
         <v>62</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>2409</v>
       </c>
       <c r="D34" s="37"/>
-      <c r="E34" s="64"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="35">
         <v>64</v>
       </c>
@@ -5476,6 +5476,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="A3:A18"/>
@@ -5486,11 +5491,6 @@
     <mergeCell ref="M14:M24"/>
     <mergeCell ref="A19:A34"/>
     <mergeCell ref="E19:E34"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="Q10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5503,7 +5503,7 @@
   <dimension ref="B2:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:N8"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5517,207 +5517,207 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-    </row>
-    <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
+      <c r="N3" s="49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.95996780000000004</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.39090009999999997</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="51">
+        <v>1</v>
+      </c>
+      <c r="J4" s="52">
+        <v>3381</v>
+      </c>
+      <c r="K4" s="52">
+        <v>3381</v>
+      </c>
+      <c r="L4" s="53">
+        <v>4.6130000000000004</v>
+      </c>
+      <c r="M4" s="54">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="N4" s="55">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.97943199999999997</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.84929279999999996</v>
+      </c>
+      <c r="E5" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72" t="s">
+      <c r="I5" s="56">
+        <v>3</v>
+      </c>
+      <c r="J5" s="57">
+        <v>1781080</v>
+      </c>
+      <c r="K5" s="57">
+        <v>593693</v>
+      </c>
+      <c r="L5" s="58">
+        <v>809.94600000000003</v>
+      </c>
+      <c r="M5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="72" t="s">
+      <c r="N5" s="59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="46">
+        <v>0.97861220000000004</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0.82973549999999996</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="60">
+        <v>1</v>
+      </c>
+      <c r="J6" s="61">
+        <v>112</v>
+      </c>
+      <c r="K6" s="61">
+        <v>112</v>
+      </c>
+      <c r="L6" s="62">
+        <v>0.153</v>
+      </c>
+      <c r="M6" s="63">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="N6" s="66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.96425780000000005</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.45949079999999998</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="60">
+        <v>3</v>
+      </c>
+      <c r="J7" s="61">
+        <v>825</v>
+      </c>
+      <c r="K7" s="61">
+        <v>275</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0.375</v>
+      </c>
+      <c r="M7" s="63">
+        <v>0.7712</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H8" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="60">
+        <v>98</v>
+      </c>
+      <c r="J8" s="61">
+        <v>71834</v>
+      </c>
+      <c r="K8" s="61">
+        <v>733</v>
+      </c>
+      <c r="L8" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="67">
-        <v>0.95996780000000004</v>
-      </c>
-      <c r="D4" s="67">
-        <v>0.39090009999999997</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="74">
-        <v>1</v>
-      </c>
-      <c r="J4" s="75">
-        <v>3381</v>
-      </c>
-      <c r="K4" s="75">
-        <v>3381</v>
-      </c>
-      <c r="L4" s="76">
-        <v>4.6130000000000004</v>
-      </c>
-      <c r="M4" s="77">
-        <v>3.4200000000000001E-2</v>
-      </c>
-      <c r="N4" s="78">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="67">
-        <v>0.97943199999999997</v>
-      </c>
-      <c r="D5" s="67">
-        <v>0.84929279999999996</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="79">
-        <v>3</v>
-      </c>
-      <c r="J5" s="80">
-        <v>1781080</v>
-      </c>
-      <c r="K5" s="80">
-        <v>593693</v>
-      </c>
-      <c r="L5" s="81">
-        <v>809.94600000000003</v>
-      </c>
-      <c r="M5" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="82" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="67">
-        <v>0.97861220000000004</v>
-      </c>
-      <c r="D6" s="67">
-        <v>0.82973549999999996</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="83">
-        <v>1</v>
-      </c>
-      <c r="J6" s="84">
-        <v>112</v>
-      </c>
-      <c r="K6" s="84">
-        <v>112</v>
-      </c>
-      <c r="L6" s="85">
-        <v>0.153</v>
-      </c>
-      <c r="M6" s="86">
-        <v>0.69620000000000004</v>
-      </c>
-      <c r="N6" s="89" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="67">
-        <v>0.96425780000000005</v>
-      </c>
-      <c r="D7" s="67">
-        <v>0.45949079999999998</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="83">
-        <v>3</v>
-      </c>
-      <c r="J7" s="84">
-        <v>825</v>
-      </c>
-      <c r="K7" s="84">
-        <v>275</v>
-      </c>
-      <c r="L7" s="85">
-        <v>0.375</v>
-      </c>
-      <c r="M7" s="86">
-        <v>0.7712</v>
-      </c>
-      <c r="N7" s="89" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H8" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="83">
-        <v>98</v>
-      </c>
-      <c r="J8" s="84">
-        <v>71834</v>
-      </c>
-      <c r="K8" s="84">
-        <v>733</v>
-      </c>
-      <c r="L8" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="88" t="s">
-        <v>36</v>
+      <c r="M8" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/velocity.xlsx
+++ b/velocity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TAMU\Spring_2023\final_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92302D3C-5E6E-40AF-AC37-4D33770A14BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E74594-DA01-403A-A739-4C515486309B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="velocity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="41">
   <si>
     <t>cnt</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Accept</t>
+  </si>
+  <si>
+    <t>Variance</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1017,6 +1020,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1062,7 +1115,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1192,6 +1245,10 @@
     <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1203,6 +1260,30 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1219,13 +1300,7 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,31 +1309,24 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1317,20 +1385,887 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary table'!$R$14:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2406.0740740740739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2433.9259259259261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2569.8461538461538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2726.7037037037039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary table'!$T$14:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>299.22507122507136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>361.68660968660981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>726.24153846153854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1546.0626780626783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C796-4797-B2FA-4412A6FBF8BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1580764080"/>
+        <c:axId val="1585072208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1580764080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1585072208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1585072208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1580764080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>477</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>58102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>410672</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19612</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>515924</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>174869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1353,8 +2288,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17468850" y="133350"/>
-          <a:ext cx="7859222" cy="4029637"/>
+          <a:off x="19348133" y="748665"/>
+          <a:ext cx="7837791" cy="3993918"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1365,16 +2300,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>766286</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>20062</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>134057</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>210085</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>92147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1397,14 +2332,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10058400" y="123825"/>
-          <a:ext cx="7249537" cy="5068007"/>
+          <a:off x="16137255" y="4197668"/>
+          <a:ext cx="7239059" cy="5017048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533637</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>36908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25716</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D712A7E-43E1-1186-FABF-96E30D4467AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3274,24 +4245,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="I1" s="70" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="I1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3335,7 +4306,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="72" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -3345,7 +4316,7 @@
         <v>2565</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="69" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1">
@@ -3354,7 +4325,7 @@
       <c r="G3" s="3">
         <v>2441</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="69" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1">
@@ -3364,7 +4335,7 @@
         <v>2393</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="67" t="s">
+      <c r="M3" s="69" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="1">
@@ -3375,7 +4346,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -3383,14 +4354,14 @@
         <v>2532</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="68"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="1">
         <v>7</v>
       </c>
       <c r="G4" s="3">
         <v>2436</v>
       </c>
-      <c r="I4" s="68"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="1">
         <v>5</v>
       </c>
@@ -3398,7 +4369,7 @@
         <v>2550</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="68"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="1">
         <v>7</v>
       </c>
@@ -3407,7 +4378,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="1">
         <v>9</v>
       </c>
@@ -3415,14 +4386,14 @@
         <v>2566</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="68"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="1">
         <v>11</v>
       </c>
       <c r="G5" s="3">
         <v>2441</v>
       </c>
-      <c r="I5" s="68"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="1">
         <v>9</v>
       </c>
@@ -3430,7 +4401,7 @@
         <v>2599</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="68"/>
+      <c r="M5" s="70"/>
       <c r="N5" s="1">
         <v>11</v>
       </c>
@@ -3439,7 +4410,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="1">
         <v>13</v>
       </c>
@@ -3447,14 +4418,14 @@
         <v>2586</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="68"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="1">
         <v>15</v>
       </c>
       <c r="G6" s="3">
         <v>2438</v>
       </c>
-      <c r="I6" s="68"/>
+      <c r="I6" s="70"/>
       <c r="J6" s="1">
         <v>13</v>
       </c>
@@ -3462,7 +4433,7 @@
         <v>2583</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="68"/>
+      <c r="M6" s="70"/>
       <c r="N6" s="1">
         <v>15</v>
       </c>
@@ -3471,7 +4442,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="1">
         <v>17</v>
       </c>
@@ -3479,14 +4450,14 @@
         <v>2613</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="68"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="1">
         <v>19</v>
       </c>
       <c r="G7" s="3">
         <v>2425</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="70"/>
       <c r="J7" s="1">
         <v>17</v>
       </c>
@@ -3494,7 +4465,7 @@
         <v>2604</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="68"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="1">
         <v>19</v>
       </c>
@@ -3503,7 +4474,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="1">
         <v>21</v>
       </c>
@@ -3511,14 +4482,14 @@
         <v>2621</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="68"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="1">
         <v>23</v>
       </c>
       <c r="G8" s="3">
         <v>2429</v>
       </c>
-      <c r="I8" s="68"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="1">
         <v>21</v>
       </c>
@@ -3526,7 +4497,7 @@
         <v>2566</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="68"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="1">
         <v>23</v>
       </c>
@@ -3535,7 +4506,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="1">
         <v>25</v>
       </c>
@@ -3543,14 +4514,14 @@
         <v>2608</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="68"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="1">
         <v>27</v>
       </c>
       <c r="G9" s="3">
         <v>2410</v>
       </c>
-      <c r="I9" s="68"/>
+      <c r="I9" s="70"/>
       <c r="J9" s="1">
         <v>25</v>
       </c>
@@ -3558,7 +4529,7 @@
         <v>2582</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="68"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="1">
         <v>27</v>
       </c>
@@ -3567,7 +4538,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="1">
         <v>29</v>
       </c>
@@ -3575,14 +4546,14 @@
         <v>2631</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="68"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="1">
         <v>31</v>
       </c>
       <c r="G10" s="3">
         <v>2462</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="1">
         <v>29</v>
       </c>
@@ -3590,7 +4561,7 @@
         <v>2558</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="68"/>
+      <c r="M10" s="70"/>
       <c r="N10" s="1">
         <v>31</v>
       </c>
@@ -3599,7 +4570,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="1">
         <v>33</v>
       </c>
@@ -3607,14 +4578,14 @@
         <v>2564</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="68"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="1">
         <v>35</v>
       </c>
       <c r="G11" s="3">
         <v>2443</v>
       </c>
-      <c r="I11" s="68"/>
+      <c r="I11" s="70"/>
       <c r="J11" s="1">
         <v>33</v>
       </c>
@@ -3622,7 +4593,7 @@
         <v>2561</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="68"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="1">
         <v>35</v>
       </c>
@@ -3631,7 +4602,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="1">
         <v>37</v>
       </c>
@@ -3639,14 +4610,14 @@
         <v>2571</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="1">
         <v>39</v>
       </c>
       <c r="G12" s="3">
         <v>2450</v>
       </c>
-      <c r="I12" s="68"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="1">
         <v>37</v>
       </c>
@@ -3654,7 +4625,7 @@
         <v>2620</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="68"/>
+      <c r="M12" s="70"/>
       <c r="N12" s="1">
         <v>39</v>
       </c>
@@ -3663,7 +4634,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="1">
         <v>41</v>
       </c>
@@ -3671,14 +4642,14 @@
         <v>2586</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="68"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="1">
         <v>43</v>
       </c>
       <c r="G13" s="3">
         <v>2406</v>
       </c>
-      <c r="I13" s="69"/>
+      <c r="I13" s="71"/>
       <c r="J13" s="1">
         <v>41</v>
       </c>
@@ -3686,7 +4657,7 @@
         <v>2599</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="69"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="1">
         <v>43</v>
       </c>
@@ -3695,7 +4666,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="1">
         <v>45</v>
       </c>
@@ -3703,14 +4674,14 @@
         <v>2601</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="68"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="1">
         <v>47</v>
       </c>
       <c r="G14" s="3">
         <v>2472</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="69" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="1">
@@ -3720,7 +4691,7 @@
         <v>2368</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="67" t="s">
+      <c r="M14" s="69" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="1">
@@ -3731,7 +4702,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="1">
         <v>49</v>
       </c>
@@ -3739,14 +4710,14 @@
         <v>2563</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="68"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="1">
         <v>51</v>
       </c>
       <c r="G15" s="3">
         <v>2424</v>
       </c>
-      <c r="I15" s="68"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="1">
         <v>6</v>
       </c>
@@ -3754,7 +4725,7 @@
         <v>2382</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="68"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="1">
         <v>8</v>
       </c>
@@ -3763,7 +4734,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="1">
         <v>53</v>
       </c>
@@ -3771,14 +4742,14 @@
         <v>2613</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="68"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="1">
         <v>55</v>
       </c>
       <c r="G16" s="3">
         <v>2469</v>
       </c>
-      <c r="I16" s="68"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="1">
         <v>10</v>
       </c>
@@ -3786,7 +4757,7 @@
         <v>2389</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="68"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="1">
         <v>12</v>
       </c>
@@ -3795,7 +4766,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="1">
         <v>57</v>
       </c>
@@ -3803,14 +4774,14 @@
         <v>2624</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="68"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="1">
         <v>59</v>
       </c>
       <c r="G17" s="3">
         <v>2413</v>
       </c>
-      <c r="I17" s="68"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="1">
         <v>14</v>
       </c>
@@ -3818,7 +4789,7 @@
         <v>2411</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="68"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="1">
         <v>16</v>
       </c>
@@ -3827,7 +4798,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="1">
         <v>61</v>
       </c>
@@ -3835,14 +4806,14 @@
         <v>2549</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="69"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="1">
         <v>63</v>
       </c>
       <c r="G18" s="3">
         <v>2440</v>
       </c>
-      <c r="I18" s="68"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="1">
         <v>18</v>
       </c>
@@ -3850,7 +4821,7 @@
         <v>2406</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="68"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="1">
         <v>20</v>
       </c>
@@ -3859,7 +4830,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="72" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1">
@@ -3869,7 +4840,7 @@
         <v>2438</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="69" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1">
@@ -3878,7 +4849,7 @@
       <c r="G19" s="3">
         <v>2779</v>
       </c>
-      <c r="I19" s="68"/>
+      <c r="I19" s="70"/>
       <c r="J19" s="1">
         <v>22</v>
       </c>
@@ -3886,7 +4857,7 @@
         <v>2412</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="68"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="1">
         <v>24</v>
       </c>
@@ -3895,7 +4866,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -3903,14 +4874,14 @@
         <v>2411</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="68"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="1">
         <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>2681</v>
       </c>
-      <c r="I20" s="68"/>
+      <c r="I20" s="70"/>
       <c r="J20" s="1">
         <v>26</v>
       </c>
@@ -3918,7 +4889,7 @@
         <v>2386</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="68"/>
+      <c r="M20" s="70"/>
       <c r="N20" s="1">
         <v>28</v>
       </c>
@@ -3927,7 +4898,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -3935,14 +4906,14 @@
         <v>2384</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="68"/>
+      <c r="E21" s="70"/>
       <c r="F21" s="1">
         <v>12</v>
       </c>
       <c r="G21" s="3">
         <v>2667</v>
       </c>
-      <c r="I21" s="68"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="1">
         <v>30</v>
       </c>
@@ -3950,7 +4921,7 @@
         <v>2390</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="68"/>
+      <c r="M21" s="70"/>
       <c r="N21" s="1">
         <v>32</v>
       </c>
@@ -3959,7 +4930,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="1">
         <v>14</v>
       </c>
@@ -3967,14 +4938,14 @@
         <v>2422</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="68"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="1">
         <v>16</v>
       </c>
       <c r="G22" s="3">
         <v>2785</v>
       </c>
-      <c r="I22" s="68"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="1">
         <v>34</v>
       </c>
@@ -3982,7 +4953,7 @@
         <v>2429</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="68"/>
+      <c r="M22" s="70"/>
       <c r="N22" s="1">
         <v>36</v>
       </c>
@@ -3991,7 +4962,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -3999,14 +4970,14 @@
         <v>2398</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="68"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="3">
         <v>2668</v>
       </c>
-      <c r="I23" s="68"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="1">
         <v>38</v>
       </c>
@@ -4014,7 +4985,7 @@
         <v>2399</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="68"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="1">
         <v>40</v>
       </c>
@@ -4023,7 +4994,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -4031,14 +5002,14 @@
         <v>2421</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="68"/>
+      <c r="E24" s="70"/>
       <c r="F24" s="1">
         <v>24</v>
       </c>
       <c r="G24" s="3">
         <v>2711</v>
       </c>
-      <c r="I24" s="69"/>
+      <c r="I24" s="71"/>
       <c r="J24" s="1">
         <v>42</v>
       </c>
@@ -4046,7 +5017,7 @@
         <v>2392</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="69"/>
+      <c r="M24" s="71"/>
       <c r="N24" s="1">
         <v>44</v>
       </c>
@@ -4055,7 +5026,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="1">
         <v>26</v>
       </c>
@@ -4063,7 +5034,7 @@
         <v>2414</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="68"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="1">
         <v>28</v>
       </c>
@@ -4072,7 +5043,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="1">
         <v>30</v>
       </c>
@@ -4080,7 +5051,7 @@
         <v>2425</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="68"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="1">
         <v>32</v>
       </c>
@@ -4089,7 +5060,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="1">
         <v>34</v>
       </c>
@@ -4097,7 +5068,7 @@
         <v>2420</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="68"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="1">
         <v>36</v>
       </c>
@@ -4106,7 +5077,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="70"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="1">
         <v>38</v>
       </c>
@@ -4114,7 +5085,7 @@
         <v>2414</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="68"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="1">
         <v>40</v>
       </c>
@@ -4123,7 +5094,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="1">
         <v>42</v>
       </c>
@@ -4131,7 +5102,7 @@
         <v>2389</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="68"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="1">
         <v>44</v>
       </c>
@@ -4140,7 +5111,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="1">
         <v>46</v>
       </c>
@@ -4148,7 +5119,7 @@
         <v>2397</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="68"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="1">
         <v>48</v>
       </c>
@@ -4157,7 +5128,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="1">
         <v>50</v>
       </c>
@@ -4165,7 +5136,7 @@
         <v>2409</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="68"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="1">
         <v>52</v>
       </c>
@@ -4174,7 +5145,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="1">
         <v>54</v>
       </c>
@@ -4182,7 +5153,7 @@
         <v>2416</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="68"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="1">
         <v>56</v>
       </c>
@@ -4191,7 +5162,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="70"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="1">
         <v>58</v>
       </c>
@@ -4199,7 +5170,7 @@
         <v>2433</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="68"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="1">
         <v>60</v>
       </c>
@@ -4208,7 +5179,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="1">
         <v>62</v>
       </c>
@@ -4216,7 +5187,7 @@
         <v>2409</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="69"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="1">
         <v>64</v>
       </c>
@@ -4261,8 +5232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C523F4-74B3-4E7D-8BAC-552A17169E6B}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4279,9 +5250,8 @@
     <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" customWidth="1"/>
-    <col min="19" max="21" width="10.21875" customWidth="1"/>
+    <col min="17" max="20" width="12.21875" customWidth="1"/>
+    <col min="21" max="21" width="10.21875" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" customWidth="1"/>
     <col min="24" max="24" width="14.88671875" customWidth="1"/>
     <col min="25" max="25" width="12.33203125" customWidth="1"/>
@@ -4291,24 +5261,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
-      <c r="I1" s="71" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="I1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="73"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
       <c r="Q1" s="17" t="s">
         <v>13</v>
       </c>
@@ -4324,16 +5294,16 @@
       <c r="U1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="81" t="s">
+      <c r="W1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="83"/>
-      <c r="AA1" s="81" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="75"/>
+      <c r="AA1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="75"/>
     </row>
     <row r="2" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
@@ -4375,7 +5345,7 @@
       <c r="O2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="84">
+      <c r="Q2" s="76">
         <v>1</v>
       </c>
       <c r="R2" s="21" t="s">
@@ -4407,7 +5377,7 @@
       <c r="AC2" s="40"/>
     </row>
     <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
@@ -4417,7 +5387,7 @@
         <v>2565</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="69" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1">
@@ -4426,7 +5396,7 @@
       <c r="G3" s="34">
         <v>2441</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="85" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1">
@@ -4436,7 +5406,7 @@
         <v>2393</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="67" t="s">
+      <c r="M3" s="69" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="1">
@@ -4445,7 +5415,7 @@
       <c r="O3" s="34">
         <v>2438</v>
       </c>
-      <c r="Q3" s="76"/>
+      <c r="Q3" s="77"/>
       <c r="R3" s="10" t="s">
         <v>5</v>
       </c>
@@ -4475,7 +5445,7 @@
       <c r="AC3" s="42"/>
     </row>
     <row r="4" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="74"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="1">
         <v>5</v>
       </c>
@@ -4483,14 +5453,14 @@
         <v>2532</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="68"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="1">
         <v>7</v>
       </c>
       <c r="G4" s="34">
         <v>2436</v>
       </c>
-      <c r="I4" s="76"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="1">
         <v>5</v>
       </c>
@@ -4498,14 +5468,14 @@
         <v>2550</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="68"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="1">
         <v>7</v>
       </c>
       <c r="O4" s="34">
         <v>2439</v>
       </c>
-      <c r="Q4" s="76"/>
+      <c r="Q4" s="77"/>
       <c r="R4" s="10" t="s">
         <v>6</v>
       </c>
@@ -4535,7 +5505,7 @@
       <c r="AC4" s="42"/>
     </row>
     <row r="5" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="74"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="1">
         <v>9</v>
       </c>
@@ -4543,14 +5513,14 @@
         <v>2566</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="68"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="1">
         <v>11</v>
       </c>
       <c r="G5" s="34">
         <v>2441</v>
       </c>
-      <c r="I5" s="76"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="1">
         <v>9</v>
       </c>
@@ -4558,7 +5528,7 @@
         <v>2599</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="68"/>
+      <c r="M5" s="70"/>
       <c r="N5" s="1">
         <v>11</v>
       </c>
@@ -4595,7 +5565,7 @@
       <c r="AC5" s="42"/>
     </row>
     <row r="6" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="74"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="1">
         <v>13</v>
       </c>
@@ -4603,14 +5573,14 @@
         <v>2586</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="68"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="1">
         <v>15</v>
       </c>
       <c r="G6" s="34">
         <v>2438</v>
       </c>
-      <c r="I6" s="76"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="1">
         <v>13</v>
       </c>
@@ -4618,14 +5588,14 @@
         <v>2583</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="68"/>
+      <c r="M6" s="70"/>
       <c r="N6" s="1">
         <v>15</v>
       </c>
       <c r="O6" s="34">
         <v>2415</v>
       </c>
-      <c r="Q6" s="84">
+      <c r="Q6" s="76">
         <v>2</v>
       </c>
       <c r="R6" s="21" t="s">
@@ -4657,7 +5627,7 @@
       <c r="AC6" s="45"/>
     </row>
     <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="1">
         <v>17</v>
       </c>
@@ -4665,14 +5635,14 @@
         <v>2613</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="68"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="1">
         <v>19</v>
       </c>
       <c r="G7" s="34">
         <v>2425</v>
       </c>
-      <c r="I7" s="76"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="1">
         <v>17</v>
       </c>
@@ -4680,14 +5650,14 @@
         <v>2604</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="68"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="1">
         <v>19</v>
       </c>
       <c r="O7" s="34">
         <v>2419</v>
       </c>
-      <c r="Q7" s="76"/>
+      <c r="Q7" s="77"/>
       <c r="R7" s="10" t="s">
         <v>5</v>
       </c>
@@ -4705,7 +5675,7 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="1">
         <v>21</v>
       </c>
@@ -4713,14 +5683,14 @@
         <v>2621</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="68"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="1">
         <v>23</v>
       </c>
       <c r="G8" s="34">
         <v>2429</v>
       </c>
-      <c r="I8" s="76"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="1">
         <v>21</v>
       </c>
@@ -4728,14 +5698,14 @@
         <v>2566</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="68"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="1">
         <v>23</v>
       </c>
       <c r="O8" s="34">
         <v>2446</v>
       </c>
-      <c r="Q8" s="76"/>
+      <c r="Q8" s="77"/>
       <c r="R8" s="10" t="s">
         <v>6</v>
       </c>
@@ -4753,7 +5723,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="1">
         <v>25</v>
       </c>
@@ -4761,14 +5731,14 @@
         <v>2608</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="68"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="1">
         <v>27</v>
       </c>
       <c r="G9" s="34">
         <v>2410</v>
       </c>
-      <c r="I9" s="76"/>
+      <c r="I9" s="77"/>
       <c r="J9" s="1">
         <v>25</v>
       </c>
@@ -4776,7 +5746,7 @@
         <v>2582</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="68"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="1">
         <v>27</v>
       </c>
@@ -4801,7 +5771,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="74"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="1">
         <v>29</v>
       </c>
@@ -4809,14 +5779,14 @@
         <v>2631</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="68"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="1">
         <v>31</v>
       </c>
       <c r="G10" s="34">
         <v>2462</v>
       </c>
-      <c r="I10" s="76"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="1">
         <v>29</v>
       </c>
@@ -4824,17 +5794,17 @@
         <v>2558</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="68"/>
+      <c r="M10" s="70"/>
       <c r="N10" s="1">
         <v>31</v>
       </c>
       <c r="O10" s="34">
         <v>2394</v>
       </c>
-      <c r="Q10" s="85" t="s">
+      <c r="Q10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="86"/>
+      <c r="R10" s="80"/>
       <c r="S10" s="26">
         <f>AVERAGE(S2:S9)</f>
         <v>2536.9930397727271</v>
@@ -4849,7 +5819,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="1">
         <v>33</v>
       </c>
@@ -4857,14 +5827,14 @@
         <v>2564</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="68"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="1">
         <v>35</v>
       </c>
       <c r="G11" s="34">
         <v>2443</v>
       </c>
-      <c r="I11" s="76"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="1">
         <v>33</v>
       </c>
@@ -4872,7 +5842,7 @@
         <v>2561</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="68"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="1">
         <v>35</v>
       </c>
@@ -4880,8 +5850,8 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
+    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="84"/>
       <c r="B12" s="1">
         <v>37</v>
       </c>
@@ -4889,14 +5859,14 @@
         <v>2571</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="1">
         <v>39</v>
       </c>
       <c r="G12" s="34">
         <v>2450</v>
       </c>
-      <c r="I12" s="76"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="1">
         <v>37</v>
       </c>
@@ -4904,7 +5874,7 @@
         <v>2620</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="68"/>
+      <c r="M12" s="70"/>
       <c r="N12" s="1">
         <v>39</v>
       </c>
@@ -4912,8 +5882,8 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+    <row r="13" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="84"/>
       <c r="B13" s="1">
         <v>41</v>
       </c>
@@ -4921,14 +5891,14 @@
         <v>2586</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="68"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="1">
         <v>43</v>
       </c>
       <c r="G13" s="34">
         <v>2406</v>
       </c>
-      <c r="I13" s="77"/>
+      <c r="I13" s="86"/>
       <c r="J13" s="1">
         <v>41</v>
       </c>
@@ -4936,16 +5906,31 @@
         <v>2599</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="69"/>
+      <c r="M13" s="71"/>
       <c r="N13" s="1">
         <v>43</v>
       </c>
       <c r="O13" s="34">
         <v>2421</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
+      <c r="Q13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="84"/>
       <c r="B14" s="1">
         <v>45</v>
       </c>
@@ -4953,14 +5938,14 @@
         <v>2601</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="68"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="1">
         <v>47</v>
       </c>
       <c r="G14" s="34">
         <v>2472</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="85" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="1">
@@ -4970,7 +5955,7 @@
         <v>2368</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="67" t="s">
+      <c r="M14" s="69" t="s">
         <v>7</v>
       </c>
       <c r="N14" s="1">
@@ -4979,9 +5964,28 @@
       <c r="O14" s="34">
         <v>2753</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
+      <c r="Q14" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="22">
+        <f>AVERAGE($C$19:$C$34,$K$14:$K$24)</f>
+        <v>2406.0740740740739</v>
+      </c>
+      <c r="S14" s="23">
+        <f>_xlfn.STDEV.S($C$19:$C$34,$K$14:$K$24)</f>
+        <v>17.298123344024095</v>
+      </c>
+      <c r="T14" s="96">
+        <f>S14^2</f>
+        <v>299.22507122507136</v>
+      </c>
+      <c r="U14" s="92">
+        <f>COUNT($C$19:$C$34,$K$14:$K$24)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="84"/>
       <c r="B15" s="1">
         <v>49</v>
       </c>
@@ -4989,14 +5993,14 @@
         <v>2563</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="68"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="1">
         <v>51</v>
       </c>
       <c r="G15" s="34">
         <v>2424</v>
       </c>
-      <c r="I15" s="76"/>
+      <c r="I15" s="77"/>
       <c r="J15" s="1">
         <v>6</v>
       </c>
@@ -5004,16 +6008,35 @@
         <v>2382</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="68"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="1">
         <v>8</v>
       </c>
       <c r="O15" s="34">
         <v>2688</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
+      <c r="Q15" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="11">
+        <f>AVERAGE($G$3:$G$18,$O$3:$O$13)</f>
+        <v>2433.9259259259261</v>
+      </c>
+      <c r="S15" s="12">
+        <f>_xlfn.STDEV.S($G$3:$G$18,$O$3:$O$13)</f>
+        <v>19.018060092622743</v>
+      </c>
+      <c r="T15" s="97">
+        <f t="shared" ref="T15:T17" si="0">S15^2</f>
+        <v>361.68660968660981</v>
+      </c>
+      <c r="U15" s="93">
+        <f>COUNT($G$3:$G$18,$O$3:$O$13)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="84"/>
       <c r="B16" s="1">
         <v>53</v>
       </c>
@@ -5021,14 +6044,14 @@
         <v>2613</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="68"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="1">
         <v>55</v>
       </c>
       <c r="G16" s="34">
         <v>2469</v>
       </c>
-      <c r="I16" s="76"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="1">
         <v>10</v>
       </c>
@@ -5036,16 +6059,35 @@
         <v>2389</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="68"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="1">
         <v>12</v>
       </c>
       <c r="O16" s="34">
         <v>2773</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
+      <c r="Q16" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="11">
+        <f>AVERAGE($C$3:$C$18,K6:K15)</f>
+        <v>2569.8461538461538</v>
+      </c>
+      <c r="S16" s="12">
+        <f>_xlfn.STDEV.S($C$3:$C$18,$K$4:$K$13)</f>
+        <v>26.948868964421095</v>
+      </c>
+      <c r="T16" s="97">
+        <f t="shared" si="0"/>
+        <v>726.24153846153854</v>
+      </c>
+      <c r="U16" s="93">
+        <f>COUNT($C$3:$C$18,K6:K15)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="84"/>
       <c r="B17" s="1">
         <v>57</v>
       </c>
@@ -5053,14 +6095,14 @@
         <v>2624</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="68"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="1">
         <v>59</v>
       </c>
       <c r="G17" s="34">
         <v>2413</v>
       </c>
-      <c r="I17" s="76"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="1">
         <v>14</v>
       </c>
@@ -5068,16 +6110,35 @@
         <v>2411</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="68"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="1">
         <v>16</v>
       </c>
       <c r="O17" s="34">
         <v>2741</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
+      <c r="Q17" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="14">
+        <f>AVERAGE($G$19:$G$34,$O$14:$O$24)</f>
+        <v>2726.7037037037039</v>
+      </c>
+      <c r="S17" s="15">
+        <f>_xlfn.STDEV.S($G$19:$G$34,$O$14:$O$24)</f>
+        <v>39.320003535893512</v>
+      </c>
+      <c r="T17" s="98">
+        <f t="shared" si="0"/>
+        <v>1546.0626780626783</v>
+      </c>
+      <c r="U17" s="94">
+        <f>COUNT($G$19:$G$34,$O$14:$O$24)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="84"/>
       <c r="B18" s="1">
         <v>61</v>
       </c>
@@ -5085,14 +6146,14 @@
         <v>2549</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="69"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="1">
         <v>63</v>
       </c>
       <c r="G18" s="34">
         <v>2440</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="1">
         <v>18</v>
       </c>
@@ -5100,7 +6161,7 @@
         <v>2406</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="68"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="1">
         <v>20</v>
       </c>
@@ -5108,8 +6169,8 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="74" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1">
@@ -5119,7 +6180,7 @@
         <v>2438</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="69" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1">
@@ -5128,7 +6189,7 @@
       <c r="G19" s="34">
         <v>2779</v>
       </c>
-      <c r="I19" s="76"/>
+      <c r="I19" s="77"/>
       <c r="J19" s="1">
         <v>22</v>
       </c>
@@ -5136,7 +6197,7 @@
         <v>2412</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="68"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="1">
         <v>24</v>
       </c>
@@ -5144,8 +6205,8 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -5153,14 +6214,14 @@
         <v>2411</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="68"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="1">
         <v>8</v>
       </c>
       <c r="G20" s="34">
         <v>2681</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="77"/>
       <c r="J20" s="1">
         <v>26</v>
       </c>
@@ -5168,7 +6229,7 @@
         <v>2386</v>
       </c>
       <c r="L20" s="6"/>
-      <c r="M20" s="68"/>
+      <c r="M20" s="70"/>
       <c r="N20" s="1">
         <v>28</v>
       </c>
@@ -5176,8 +6237,8 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="84"/>
       <c r="B21" s="1">
         <v>10</v>
       </c>
@@ -5185,14 +6246,14 @@
         <v>2384</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="68"/>
+      <c r="E21" s="70"/>
       <c r="F21" s="1">
         <v>12</v>
       </c>
       <c r="G21" s="34">
         <v>2667</v>
       </c>
-      <c r="I21" s="76"/>
+      <c r="I21" s="77"/>
       <c r="J21" s="1">
         <v>30</v>
       </c>
@@ -5200,7 +6261,7 @@
         <v>2390</v>
       </c>
       <c r="L21" s="6"/>
-      <c r="M21" s="68"/>
+      <c r="M21" s="70"/>
       <c r="N21" s="1">
         <v>32</v>
       </c>
@@ -5208,8 +6269,8 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="84"/>
       <c r="B22" s="1">
         <v>14</v>
       </c>
@@ -5217,14 +6278,14 @@
         <v>2422</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="68"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="1">
         <v>16</v>
       </c>
       <c r="G22" s="34">
         <v>2785</v>
       </c>
-      <c r="I22" s="76"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="1">
         <v>34</v>
       </c>
@@ -5232,7 +6293,7 @@
         <v>2429</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="68"/>
+      <c r="M22" s="70"/>
       <c r="N22" s="1">
         <v>36</v>
       </c>
@@ -5240,8 +6301,8 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="84"/>
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -5249,14 +6310,14 @@
         <v>2398</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="68"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="34">
         <v>2668</v>
       </c>
-      <c r="I23" s="76"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="1">
         <v>38</v>
       </c>
@@ -5264,7 +6325,7 @@
         <v>2399</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="68"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="1">
         <v>40</v>
       </c>
@@ -5272,8 +6333,8 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="74"/>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="84"/>
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -5281,7 +6342,7 @@
         <v>2421</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="68"/>
+      <c r="E24" s="70"/>
       <c r="F24" s="1">
         <v>24</v>
       </c>
@@ -5296,7 +6357,7 @@
         <v>2392</v>
       </c>
       <c r="L24" s="37"/>
-      <c r="M24" s="79"/>
+      <c r="M24" s="87"/>
       <c r="N24" s="35">
         <v>44</v>
       </c>
@@ -5304,8 +6365,8 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="84"/>
       <c r="B25" s="1">
         <v>26</v>
       </c>
@@ -5313,7 +6374,7 @@
         <v>2414</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="68"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="1">
         <v>28</v>
       </c>
@@ -5321,8 +6382,8 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="74"/>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="84"/>
       <c r="B26" s="1">
         <v>30</v>
       </c>
@@ -5330,7 +6391,7 @@
         <v>2425</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="68"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="1">
         <v>32</v>
       </c>
@@ -5338,8 +6399,8 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="74"/>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="84"/>
       <c r="B27" s="1">
         <v>34</v>
       </c>
@@ -5347,7 +6408,7 @@
         <v>2420</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="68"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="1">
         <v>36</v>
       </c>
@@ -5355,8 +6416,8 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="84"/>
       <c r="B28" s="1">
         <v>38</v>
       </c>
@@ -5364,7 +6425,7 @@
         <v>2414</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="68"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="1">
         <v>40</v>
       </c>
@@ -5372,8 +6433,8 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="74"/>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="84"/>
       <c r="B29" s="1">
         <v>42</v>
       </c>
@@ -5381,7 +6442,7 @@
         <v>2389</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="68"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="1">
         <v>44</v>
       </c>
@@ -5389,8 +6450,8 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="84"/>
       <c r="B30" s="1">
         <v>46</v>
       </c>
@@ -5398,7 +6459,7 @@
         <v>2397</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="68"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="1">
         <v>48</v>
       </c>
@@ -5406,8 +6467,8 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="74"/>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="84"/>
       <c r="B31" s="1">
         <v>50</v>
       </c>
@@ -5415,7 +6476,7 @@
         <v>2409</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="68"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="1">
         <v>52</v>
       </c>
@@ -5423,8 +6484,8 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="74"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="84"/>
       <c r="B32" s="1">
         <v>54</v>
       </c>
@@ -5432,7 +6493,7 @@
         <v>2416</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="68"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="1">
         <v>56</v>
       </c>
@@ -5441,7 +6502,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="74"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="1">
         <v>58</v>
       </c>
@@ -5449,7 +6510,7 @@
         <v>2433</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="68"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="1">
         <v>60</v>
       </c>
@@ -5458,7 +6519,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="80"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="35">
         <v>62</v>
       </c>
@@ -5466,7 +6527,7 @@
         <v>2409</v>
       </c>
       <c r="D34" s="37"/>
-      <c r="E34" s="79"/>
+      <c r="E34" s="87"/>
       <c r="F34" s="35">
         <v>64</v>
       </c>
@@ -5475,12 +6536,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q14:U17">
+    <sortCondition ref="S13:S17"/>
+  </sortState>
   <mergeCells count="15">
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="A3:A18"/>
@@ -5491,9 +6550,17 @@
     <mergeCell ref="M14:M24"/>
     <mergeCell ref="A19:A34"/>
     <mergeCell ref="E19:E34"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="Q10:R10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="R16 U16" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5502,8 +6569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A854019-E8E4-4713-BFF6-E1139EDB7524}">
   <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5517,12 +6584,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
     </row>
     <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -5567,7 +6634,7 @@
       <c r="D4" s="46">
         <v>0.39090009999999997</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="68" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="50" t="s">
@@ -5602,7 +6669,7 @@
       <c r="D5" s="46">
         <v>0.84929279999999996</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="68" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="50" t="s">
@@ -5637,7 +6704,7 @@
       <c r="D6" s="46">
         <v>0.82973549999999996</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="68" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="50" t="s">
@@ -5672,7 +6739,7 @@
       <c r="D7" s="46">
         <v>0.45949079999999998</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="68" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="50" t="s">
